--- a/水泥.excel/1110/1110(102.1~105.4)4.xlsx
+++ b/水泥.excel/1110/1110(102.1~105.4)4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
   <si>
     <t>金額_x</t>
   </si>
@@ -115,1222 +115,88 @@
     <t>停業單位損益合計</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>備供出售金融資產未實現評價損益</t>
   </si>
   <si>
-    <t>121,549</t>
-  </si>
-  <si>
-    <t>-47,381</t>
-  </si>
-  <si>
-    <t>54,389</t>
-  </si>
-  <si>
-    <t>212,690</t>
-  </si>
-  <si>
-    <t>84,007</t>
-  </si>
-  <si>
-    <t>82,470</t>
-  </si>
-  <si>
-    <t>-32,549</t>
-  </si>
-  <si>
-    <t>117,243</t>
-  </si>
-  <si>
-    <t>60,155</t>
-  </si>
-  <si>
-    <t>-50,123</t>
-  </si>
-  <si>
-    <t>-277,837</t>
-  </si>
-  <si>
-    <t>-247,829</t>
-  </si>
-  <si>
-    <t>60,931</t>
-  </si>
-  <si>
-    <t>-88,062</t>
-  </si>
-  <si>
-    <t>-22,370</t>
-  </si>
-  <si>
-    <t>-92,179</t>
-  </si>
-  <si>
     <t>其他利益及損失淨額</t>
   </si>
   <si>
-    <t>6,656</t>
-  </si>
-  <si>
-    <t>-55,892</t>
-  </si>
-  <si>
-    <t>1,494</t>
-  </si>
-  <si>
-    <t>-153,204</t>
-  </si>
-  <si>
-    <t>7,858</t>
-  </si>
-  <si>
-    <t>5,252</t>
-  </si>
-  <si>
-    <t>11,827</t>
-  </si>
-  <si>
-    <t>-71,952</t>
-  </si>
-  <si>
-    <t>518</t>
-  </si>
-  <si>
-    <t>-3,815</t>
-  </si>
-  <si>
-    <t>-11,691</t>
-  </si>
-  <si>
-    <t>-18,650</t>
-  </si>
-  <si>
-    <t>176,851</t>
-  </si>
-  <si>
-    <t>10,696</t>
-  </si>
-  <si>
-    <t>-1,813</t>
-  </si>
-  <si>
-    <t>220,478</t>
-  </si>
-  <si>
     <t>其他收入</t>
   </si>
   <si>
-    <t>2,928</t>
-  </si>
-  <si>
-    <t>7,911</t>
-  </si>
-  <si>
-    <t>52,836</t>
-  </si>
-  <si>
-    <t>70,117</t>
-  </si>
-  <si>
-    <t>2,673</t>
-  </si>
-  <si>
-    <t>4,445</t>
-  </si>
-  <si>
-    <t>53,374</t>
-  </si>
-  <si>
-    <t>66,614</t>
-  </si>
-  <si>
-    <t>1,628</t>
-  </si>
-  <si>
-    <t>6,802</t>
-  </si>
-  <si>
-    <t>62,421</t>
-  </si>
-  <si>
-    <t>98,155</t>
-  </si>
-  <si>
-    <t>3,931</t>
-  </si>
-  <si>
-    <t>2,924</t>
-  </si>
-  <si>
-    <t>54,130</t>
-  </si>
-  <si>
-    <t>64,546</t>
-  </si>
-  <si>
     <t>其他綜合損益（淨額）</t>
   </si>
   <si>
-    <t>121,136</t>
-  </si>
-  <si>
-    <t>-45,821</t>
-  </si>
-  <si>
-    <t>54,664</t>
-  </si>
-  <si>
-    <t>216,128</t>
-  </si>
-  <si>
-    <t>83,549</t>
-  </si>
-  <si>
-    <t>81,277</t>
-  </si>
-  <si>
-    <t>-31,586</t>
-  </si>
-  <si>
-    <t>116,800</t>
-  </si>
-  <si>
-    <t>59,880</t>
-  </si>
-  <si>
-    <t>-51,655</t>
-  </si>
-  <si>
-    <t>-277,773</t>
-  </si>
-  <si>
-    <t>-249,155</t>
-  </si>
-  <si>
-    <t>60,334</t>
-  </si>
-  <si>
-    <t>-88,015</t>
-  </si>
-  <si>
-    <t>-22,095</t>
-  </si>
-  <si>
-    <t>-91,853</t>
-  </si>
-  <si>
     <t>基本每股盈餘</t>
   </si>
   <si>
-    <t>0.11</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>0.19</t>
-  </si>
-  <si>
-    <t>0.26</t>
-  </si>
-  <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>0.10</t>
-  </si>
-  <si>
-    <t>0.21</t>
-  </si>
-  <si>
-    <t>-0.02</t>
-  </si>
-  <si>
     <t>所得稅費用（利益）合計</t>
   </si>
   <si>
-    <t>-1,596</t>
-  </si>
-  <si>
-    <t>-10,181</t>
-  </si>
-  <si>
-    <t>-3,720</t>
-  </si>
-  <si>
-    <t>-34,930</t>
-  </si>
-  <si>
-    <t>-6,483</t>
-  </si>
-  <si>
-    <t>5,825</t>
-  </si>
-  <si>
-    <t>2,139</t>
-  </si>
-  <si>
-    <t>-11,396</t>
-  </si>
-  <si>
-    <t>-4,546</t>
-  </si>
-  <si>
-    <t>1,566</t>
-  </si>
-  <si>
-    <t>3,104</t>
-  </si>
-  <si>
-    <t>-507</t>
-  </si>
-  <si>
-    <t>-19,341</t>
-  </si>
-  <si>
-    <t>697</t>
-  </si>
-  <si>
-    <t>-780</t>
-  </si>
-  <si>
-    <t>9,733</t>
-  </si>
-  <si>
     <t>採用權益法認列之關聯企業及合資之其他綜合損益之份額合計</t>
   </si>
   <si>
-    <t>-413</t>
-  </si>
-  <si>
-    <t>1,560</t>
-  </si>
-  <si>
-    <t>275</t>
-  </si>
-  <si>
-    <t>3,473</t>
-  </si>
-  <si>
-    <t>-458</t>
-  </si>
-  <si>
-    <t>-1,193</t>
-  </si>
-  <si>
-    <t>963</t>
-  </si>
-  <si>
-    <t>-443</t>
-  </si>
-  <si>
-    <t>-225</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
     <t>採用權益法認列之關聯企業及合資損益之份額淨額</t>
   </si>
   <si>
-    <t>-1,355</t>
-  </si>
-  <si>
-    <t>869</t>
-  </si>
-  <si>
-    <t>545</t>
-  </si>
-  <si>
-    <t>2,287</t>
-  </si>
-  <si>
-    <t>-3,372</t>
-  </si>
-  <si>
-    <t>-5,393</t>
-  </si>
-  <si>
-    <t>-1,074</t>
-  </si>
-  <si>
-    <t>5,971</t>
-  </si>
-  <si>
-    <t>-3,057</t>
-  </si>
-  <si>
-    <t>-637</t>
-  </si>
-  <si>
-    <t>1,588</t>
-  </si>
-  <si>
-    <t>-6,290</t>
-  </si>
-  <si>
-    <t>759</t>
-  </si>
-  <si>
-    <t>1,211</t>
-  </si>
-  <si>
-    <t>3,285</t>
-  </si>
-  <si>
-    <t>7,883</t>
-  </si>
-  <si>
     <t>採用權益法認列關聯企業及合資之其他綜合損益之份額-可能重分類至損益之項目</t>
   </si>
   <si>
-    <t>-275</t>
-  </si>
-  <si>
-    <t>-1,532</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>-1,101</t>
-  </si>
-  <si>
-    <t>-597</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
     <t>推銷費用</t>
   </si>
   <si>
-    <t>2,501</t>
-  </si>
-  <si>
-    <t>2,366</t>
-  </si>
-  <si>
-    <t>1,605</t>
-  </si>
-  <si>
-    <t>8,637</t>
-  </si>
-  <si>
-    <t>2,260</t>
-  </si>
-  <si>
-    <t>1,259</t>
-  </si>
-  <si>
-    <t>1,351</t>
-  </si>
-  <si>
-    <t>6,662</t>
-  </si>
-  <si>
-    <t>2,334</t>
-  </si>
-  <si>
-    <t>1,258</t>
-  </si>
-  <si>
-    <t>1,307</t>
-  </si>
-  <si>
-    <t>7,311</t>
-  </si>
-  <si>
-    <t>3,407</t>
-  </si>
-  <si>
-    <t>2,347</t>
-  </si>
-  <si>
-    <t>2,608</t>
-  </si>
-  <si>
-    <t>11,578</t>
-  </si>
-  <si>
     <t>本期淨利（淨損）</t>
   </si>
   <si>
-    <t>61,097</t>
-  </si>
-  <si>
-    <t>17,151</t>
-  </si>
-  <si>
-    <t>109,032</t>
-  </si>
-  <si>
-    <t>146,860</t>
-  </si>
-  <si>
-    <t>68,173</t>
-  </si>
-  <si>
-    <t>36,589</t>
-  </si>
-  <si>
-    <t>63,447</t>
-  </si>
-  <si>
-    <t>142,301</t>
-  </si>
-  <si>
-    <t>35,987</t>
-  </si>
-  <si>
-    <t>24,910</t>
-  </si>
-  <si>
-    <t>61,391</t>
-  </si>
-  <si>
-    <t>144,466</t>
-  </si>
-  <si>
-    <t>216,613</t>
-  </si>
-  <si>
-    <t>18,707</t>
-  </si>
-  <si>
-    <t>-8,727</t>
-  </si>
-  <si>
-    <t>207,603</t>
-  </si>
-  <si>
     <t>本期綜合損益總額</t>
   </si>
   <si>
-    <t>182,233</t>
-  </si>
-  <si>
-    <t>-28,670</t>
-  </si>
-  <si>
-    <t>163,696</t>
-  </si>
-  <si>
-    <t>362,988</t>
-  </si>
-  <si>
-    <t>151,722</t>
-  </si>
-  <si>
-    <t>117,866</t>
-  </si>
-  <si>
-    <t>31,861</t>
-  </si>
-  <si>
-    <t>259,101</t>
-  </si>
-  <si>
-    <t>95,867</t>
-  </si>
-  <si>
-    <t>-26,745</t>
-  </si>
-  <si>
-    <t>-216,382</t>
-  </si>
-  <si>
-    <t>-104,689</t>
-  </si>
-  <si>
-    <t>276,947</t>
-  </si>
-  <si>
-    <t>-69,308</t>
-  </si>
-  <si>
-    <t>-30,822</t>
-  </si>
-  <si>
-    <t>115,750</t>
-  </si>
-  <si>
     <t>母公司業主（淨利／損）</t>
   </si>
   <si>
-    <t>60,801</t>
-  </si>
-  <si>
-    <t>16,990</t>
-  </si>
-  <si>
-    <t>108,815</t>
-  </si>
-  <si>
-    <t>146,033</t>
-  </si>
-  <si>
-    <t>67,967</t>
-  </si>
-  <si>
-    <t>36,509</t>
-  </si>
-  <si>
-    <t>63,250</t>
-  </si>
-  <si>
-    <t>141,765</t>
-  </si>
-  <si>
-    <t>35,833</t>
-  </si>
-  <si>
-    <t>24,796</t>
-  </si>
-  <si>
-    <t>61,269</t>
-  </si>
-  <si>
-    <t>143,995</t>
-  </si>
-  <si>
-    <t>117,463</t>
-  </si>
-  <si>
-    <t>18,208</t>
-  </si>
-  <si>
-    <t>-8,980</t>
-  </si>
-  <si>
-    <t>108,418</t>
-  </si>
-  <si>
     <t>母公司業主（綜合損益）</t>
   </si>
   <si>
-    <t>181,938</t>
-  </si>
-  <si>
-    <t>-28,834</t>
-  </si>
-  <si>
-    <t>163,478</t>
-  </si>
-  <si>
-    <t>362,154</t>
-  </si>
-  <si>
-    <t>151,517</t>
-  </si>
-  <si>
-    <t>117,787</t>
-  </si>
-  <si>
-    <t>31,662</t>
-  </si>
-  <si>
-    <t>258,565</t>
-  </si>
-  <si>
-    <t>95,714</t>
-  </si>
-  <si>
-    <t>-26,856</t>
-  </si>
-  <si>
-    <t>-216,504</t>
-  </si>
-  <si>
-    <t>-105,156</t>
-  </si>
-  <si>
-    <t>177,798</t>
-  </si>
-  <si>
-    <t>-69,807</t>
-  </si>
-  <si>
-    <t>-31,075</t>
-  </si>
-  <si>
-    <t>16,564</t>
-  </si>
-  <si>
     <t>營業利益（損失）</t>
   </si>
   <si>
-    <t>51,795</t>
-  </si>
-  <si>
-    <t>54,482</t>
-  </si>
-  <si>
-    <t>50,826</t>
-  </si>
-  <si>
-    <t>194,430</t>
-  </si>
-  <si>
-    <t>54,922</t>
-  </si>
-  <si>
-    <t>38,582</t>
-  </si>
-  <si>
-    <t>1,871</t>
-  </si>
-  <si>
-    <t>131,940</t>
-  </si>
-  <si>
-    <t>32,740</t>
-  </si>
-  <si>
-    <t>24,169</t>
-  </si>
-  <si>
-    <t>12,226</t>
-  </si>
-  <si>
-    <t>71,282</t>
-  </si>
-  <si>
-    <t>15,784</t>
-  </si>
-  <si>
-    <t>4,709</t>
-  </si>
-  <si>
-    <t>-65,089</t>
-  </si>
-  <si>
-    <t>-75,303</t>
-  </si>
-  <si>
     <t>營業外收入及支出合計</t>
   </si>
   <si>
-    <t>7,706</t>
-  </si>
-  <si>
-    <t>-47,512</t>
-  </si>
-  <si>
-    <t>54,486</t>
-  </si>
-  <si>
-    <t>-82,500</t>
-  </si>
-  <si>
-    <t>6,768</t>
-  </si>
-  <si>
-    <t>3,832</t>
-  </si>
-  <si>
-    <t>63,715</t>
-  </si>
-  <si>
-    <t>-1,035</t>
-  </si>
-  <si>
-    <t>-1,299</t>
-  </si>
-  <si>
-    <t>2,307</t>
-  </si>
-  <si>
-    <t>52,269</t>
-  </si>
-  <si>
-    <t>72,677</t>
-  </si>
-  <si>
-    <t>181,488</t>
-  </si>
-  <si>
-    <t>14,695</t>
-  </si>
-  <si>
-    <t>55,582</t>
-  </si>
-  <si>
-    <t>292,639</t>
-  </si>
-  <si>
     <t>營業成本合計</t>
   </si>
   <si>
-    <t>393,630</t>
-  </si>
-  <si>
-    <t>419,977</t>
-  </si>
-  <si>
-    <t>436,469</t>
-  </si>
-  <si>
-    <t>1,766,933</t>
-  </si>
-  <si>
-    <t>423,693</t>
-  </si>
-  <si>
-    <t>454,883</t>
-  </si>
-  <si>
-    <t>453,290</t>
-  </si>
-  <si>
-    <t>1,865,890</t>
-  </si>
-  <si>
-    <t>428,669</t>
-  </si>
-  <si>
-    <t>444,616</t>
-  </si>
-  <si>
-    <t>386,050</t>
-  </si>
-  <si>
-    <t>1,718,202</t>
-  </si>
-  <si>
-    <t>347,147</t>
-  </si>
-  <si>
-    <t>384,500</t>
-  </si>
-  <si>
-    <t>345,881</t>
-  </si>
-  <si>
-    <t>1,468,244</t>
-  </si>
-  <si>
     <t>營業收入合計</t>
   </si>
   <si>
-    <t>460,227</t>
-  </si>
-  <si>
-    <t>487,650</t>
-  </si>
-  <si>
-    <t>500,996</t>
-  </si>
-  <si>
-    <t>2,024,604</t>
-  </si>
-  <si>
-    <t>495,721</t>
-  </si>
-  <si>
-    <t>508,589</t>
-  </si>
-  <si>
-    <t>481,447</t>
-  </si>
-  <si>
-    <t>2,078,224</t>
-  </si>
-  <si>
-    <t>475,433</t>
-  </si>
-  <si>
-    <t>483,408</t>
-  </si>
-  <si>
-    <t>413,010</t>
-  </si>
-  <si>
-    <t>1,857,289</t>
-  </si>
-  <si>
-    <t>383,670</t>
-  </si>
-  <si>
-    <t>403,918</t>
-  </si>
-  <si>
-    <t>300,124</t>
-  </si>
-  <si>
-    <t>1,478,515</t>
-  </si>
-  <si>
     <t>營業毛利（毛損）</t>
   </si>
   <si>
-    <t>66,597</t>
-  </si>
-  <si>
-    <t>67,673</t>
-  </si>
-  <si>
-    <t>64,527</t>
-  </si>
-  <si>
-    <t>257,671</t>
-  </si>
-  <si>
-    <t>72,028</t>
-  </si>
-  <si>
-    <t>53,706</t>
-  </si>
-  <si>
-    <t>28,157</t>
-  </si>
-  <si>
-    <t>212,334</t>
-  </si>
-  <si>
-    <t>46,764</t>
-  </si>
-  <si>
-    <t>38,792</t>
-  </si>
-  <si>
-    <t>26,960</t>
-  </si>
-  <si>
-    <t>139,087</t>
-  </si>
-  <si>
-    <t>36,523</t>
-  </si>
-  <si>
-    <t>19,418</t>
-  </si>
-  <si>
-    <t>-45,757</t>
-  </si>
-  <si>
-    <t>10,271</t>
-  </si>
-  <si>
     <t>營業毛利（毛損）淨額</t>
   </si>
   <si>
     <t>營業費用合計</t>
   </si>
   <si>
-    <t>14,802</t>
-  </si>
-  <si>
-    <t>13,191</t>
-  </si>
-  <si>
-    <t>13,701</t>
-  </si>
-  <si>
-    <t>63,241</t>
-  </si>
-  <si>
-    <t>17,106</t>
-  </si>
-  <si>
-    <t>15,124</t>
-  </si>
-  <si>
-    <t>26,286</t>
-  </si>
-  <si>
-    <t>80,394</t>
-  </si>
-  <si>
-    <t>14,024</t>
-  </si>
-  <si>
-    <t>14,623</t>
-  </si>
-  <si>
-    <t>14,734</t>
-  </si>
-  <si>
-    <t>67,805</t>
-  </si>
-  <si>
-    <t>20,739</t>
-  </si>
-  <si>
-    <t>14,709</t>
-  </si>
-  <si>
-    <t>19,332</t>
-  </si>
-  <si>
-    <t>85,574</t>
-  </si>
-  <si>
     <t>稅前淨利（淨損）</t>
   </si>
   <si>
-    <t>59,501</t>
-  </si>
-  <si>
-    <t>6,970</t>
-  </si>
-  <si>
-    <t>105,312</t>
-  </si>
-  <si>
-    <t>111,930</t>
-  </si>
-  <si>
-    <t>61,690</t>
-  </si>
-  <si>
-    <t>42,414</t>
-  </si>
-  <si>
-    <t>65,586</t>
-  </si>
-  <si>
-    <t>130,905</t>
-  </si>
-  <si>
-    <t>31,441</t>
-  </si>
-  <si>
-    <t>26,476</t>
-  </si>
-  <si>
-    <t>64,495</t>
-  </si>
-  <si>
-    <t>143,959</t>
-  </si>
-  <si>
-    <t>197,272</t>
-  </si>
-  <si>
-    <t>19,404</t>
-  </si>
-  <si>
-    <t>-9,507</t>
-  </si>
-  <si>
-    <t>217,336</t>
-  </si>
-  <si>
     <t>管理費用</t>
   </si>
   <si>
-    <t>12,301</t>
-  </si>
-  <si>
-    <t>10,825</t>
-  </si>
-  <si>
-    <t>12,096</t>
-  </si>
-  <si>
-    <t>54,604</t>
-  </si>
-  <si>
-    <t>14,846</t>
-  </si>
-  <si>
-    <t>13,865</t>
-  </si>
-  <si>
-    <t>24,935</t>
-  </si>
-  <si>
-    <t>73,732</t>
-  </si>
-  <si>
-    <t>11,690</t>
-  </si>
-  <si>
-    <t>13,365</t>
-  </si>
-  <si>
-    <t>13,427</t>
-  </si>
-  <si>
-    <t>60,494</t>
-  </si>
-  <si>
-    <t>17,332</t>
-  </si>
-  <si>
-    <t>12,362</t>
-  </si>
-  <si>
-    <t>16,724</t>
-  </si>
-  <si>
-    <t>73,996</t>
-  </si>
-  <si>
     <t>繼續營業單位本期淨利（淨損）</t>
   </si>
   <si>
     <t>與其他綜合損益組成部分相關之所得稅</t>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
     <t>財務成本淨額</t>
   </si>
   <si>
-    <t>523</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>389</t>
-  </si>
-  <si>
-    <t>1,700</t>
-  </si>
-  <si>
-    <t>391</t>
-  </si>
-  <si>
-    <t>472</t>
-  </si>
-  <si>
-    <t>412</t>
-  </si>
-  <si>
-    <t>1,668</t>
-  </si>
-  <si>
-    <t>388</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>538</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>268</t>
-  </si>
-  <si>
     <t>非控制權益（淨利／損）</t>
   </si>
   <si>
-    <t>296</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>217</t>
-  </si>
-  <si>
-    <t>827</t>
-  </si>
-  <si>
-    <t>206</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>536</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>471</t>
-  </si>
-  <si>
-    <t>99,150</t>
-  </si>
-  <si>
-    <t>499</t>
-  </si>
-  <si>
-    <t>253</t>
-  </si>
-  <si>
-    <t>99,185</t>
-  </si>
-  <si>
     <t>非控制權益（綜合損益）</t>
-  </si>
-  <si>
-    <t>295</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>218</t>
-  </si>
-  <si>
-    <t>834</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>467</t>
-  </si>
-  <si>
-    <t>99,149</t>
-  </si>
-  <si>
-    <t>99,186</t>
   </si>
 </sst>
 </file>
@@ -1797,8 +663,8 @@
       <c r="G2" t="s"/>
       <c r="H2" t="s"/>
       <c r="I2" t="s"/>
-      <c r="J2" t="s">
-        <v>33</v>
+      <c r="J2" t="n">
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -1809,8 +675,8 @@
       <c r="O2" t="s"/>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="s">
-        <v>33</v>
+      <c r="R2" t="n">
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -1832,100 +698,100 @@
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="B3" t="n">
+        <v>121549</v>
       </c>
       <c r="C3" t="n">
         <v>26.41</v>
       </c>
-      <c r="D3" t="s">
-        <v>36</v>
+      <c r="D3" t="n">
+        <v>-47381</v>
       </c>
       <c r="E3" t="n">
         <v>-9.720000000000001</v>
       </c>
-      <c r="F3" t="s">
-        <v>37</v>
+      <c r="F3" t="n">
+        <v>54389</v>
       </c>
       <c r="G3" t="n">
         <v>10.86</v>
       </c>
-      <c r="H3" t="s">
-        <v>38</v>
+      <c r="H3" t="n">
+        <v>212690</v>
       </c>
       <c r="I3" t="n">
         <v>10.51</v>
       </c>
-      <c r="J3" t="s">
-        <v>39</v>
+      <c r="J3" t="n">
+        <v>84007</v>
       </c>
       <c r="K3" t="n">
         <v>16.95</v>
       </c>
-      <c r="L3" t="s">
-        <v>40</v>
+      <c r="L3" t="n">
+        <v>82470</v>
       </c>
       <c r="M3" t="n">
         <v>16.22</v>
       </c>
-      <c r="N3" t="s">
-        <v>41</v>
+      <c r="N3" t="n">
+        <v>-32549</v>
       </c>
       <c r="O3" t="n">
         <v>-6.76</v>
       </c>
-      <c r="P3" t="s">
-        <v>42</v>
+      <c r="P3" t="n">
+        <v>117243</v>
       </c>
       <c r="Q3" t="n">
         <v>5.64</v>
       </c>
-      <c r="R3" t="s">
-        <v>43</v>
+      <c r="R3" t="n">
+        <v>60155</v>
       </c>
       <c r="S3" t="n">
         <v>12.65</v>
       </c>
-      <c r="T3" t="s">
-        <v>44</v>
+      <c r="T3" t="n">
+        <v>-50123</v>
       </c>
       <c r="U3" t="n">
         <v>-10.37</v>
       </c>
-      <c r="V3" t="s">
-        <v>45</v>
+      <c r="V3" t="n">
+        <v>-277837</v>
       </c>
       <c r="W3" t="n">
         <v>-67.27</v>
       </c>
-      <c r="X3" t="s">
-        <v>46</v>
+      <c r="X3" t="n">
+        <v>-247829</v>
       </c>
       <c r="Y3" t="n">
         <v>-13.34</v>
       </c>
-      <c r="Z3" t="s">
-        <v>47</v>
+      <c r="Z3" t="n">
+        <v>60931</v>
       </c>
       <c r="AA3" t="n">
         <v>15.88</v>
       </c>
-      <c r="AB3" t="s">
-        <v>48</v>
+      <c r="AB3" t="n">
+        <v>-88062</v>
       </c>
       <c r="AC3" t="n">
         <v>-21.8</v>
       </c>
-      <c r="AD3" t="s">
-        <v>49</v>
+      <c r="AD3" t="n">
+        <v>-22370</v>
       </c>
       <c r="AE3" t="n">
         <v>-7.45</v>
       </c>
-      <c r="AF3" t="s">
-        <v>50</v>
+      <c r="AF3" t="n">
+        <v>-92179</v>
       </c>
       <c r="AG3" t="n">
         <v>-6.23</v>
@@ -1933,100 +799,100 @@
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
+        <v>34</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6656</v>
       </c>
       <c r="C4" t="n">
         <v>1.45</v>
       </c>
-      <c r="D4" t="s">
-        <v>53</v>
+      <c r="D4" t="n">
+        <v>-55892</v>
       </c>
       <c r="E4" t="n">
         <v>-11.46</v>
       </c>
-      <c r="F4" t="s">
-        <v>54</v>
+      <c r="F4" t="n">
+        <v>1494</v>
       </c>
       <c r="G4" t="n">
         <v>0.3</v>
       </c>
-      <c r="H4" t="s">
-        <v>55</v>
+      <c r="H4" t="n">
+        <v>-153204</v>
       </c>
       <c r="I4" t="n">
         <v>-7.57</v>
       </c>
-      <c r="J4" t="s">
-        <v>56</v>
+      <c r="J4" t="n">
+        <v>7858</v>
       </c>
       <c r="K4" t="n">
         <v>1.59</v>
       </c>
-      <c r="L4" t="s">
-        <v>57</v>
+      <c r="L4" t="n">
+        <v>5252</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
       </c>
-      <c r="N4" t="s">
-        <v>58</v>
+      <c r="N4" t="n">
+        <v>11827</v>
       </c>
       <c r="O4" t="n">
         <v>2.46</v>
       </c>
-      <c r="P4" t="s">
-        <v>59</v>
+      <c r="P4" t="n">
+        <v>-71952</v>
       </c>
       <c r="Q4" t="n">
         <v>-3.46</v>
       </c>
-      <c r="R4" t="s">
-        <v>60</v>
+      <c r="R4" t="n">
+        <v>518</v>
       </c>
       <c r="S4" t="n">
         <v>0.11</v>
       </c>
-      <c r="T4" t="s">
-        <v>61</v>
+      <c r="T4" t="n">
+        <v>-3815</v>
       </c>
       <c r="U4" t="n">
         <v>-0.79</v>
       </c>
-      <c r="V4" t="s">
-        <v>62</v>
+      <c r="V4" t="n">
+        <v>-11691</v>
       </c>
       <c r="W4" t="n">
         <v>-2.83</v>
       </c>
-      <c r="X4" t="s">
-        <v>63</v>
+      <c r="X4" t="n">
+        <v>-18650</v>
       </c>
       <c r="Y4" t="n">
         <v>-1</v>
       </c>
-      <c r="Z4" t="s">
-        <v>64</v>
+      <c r="Z4" t="n">
+        <v>176851</v>
       </c>
       <c r="AA4" t="n">
         <v>46.09</v>
       </c>
-      <c r="AB4" t="s">
-        <v>65</v>
+      <c r="AB4" t="n">
+        <v>10696</v>
       </c>
       <c r="AC4" t="n">
         <v>2.65</v>
       </c>
-      <c r="AD4" t="s">
-        <v>66</v>
+      <c r="AD4" t="n">
+        <v>-1813</v>
       </c>
       <c r="AE4" t="n">
         <v>-0.6</v>
       </c>
-      <c r="AF4" t="s">
-        <v>67</v>
+      <c r="AF4" t="n">
+        <v>220478</v>
       </c>
       <c r="AG4" t="n">
         <v>14.91</v>
@@ -2034,100 +900,100 @@
     </row>
     <row r="5" spans="1:33">
       <c r="A5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" t="s">
-        <v>69</v>
+        <v>35</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2928</v>
       </c>
       <c r="C5" t="n">
         <v>0.64</v>
       </c>
-      <c r="D5" t="s">
-        <v>70</v>
+      <c r="D5" t="n">
+        <v>7911</v>
       </c>
       <c r="E5" t="n">
         <v>1.62</v>
       </c>
-      <c r="F5" t="s">
-        <v>71</v>
+      <c r="F5" t="n">
+        <v>52836</v>
       </c>
       <c r="G5" t="n">
         <v>10.55</v>
       </c>
-      <c r="H5" t="s">
-        <v>72</v>
+      <c r="H5" t="n">
+        <v>70117</v>
       </c>
       <c r="I5" t="n">
         <v>3.46</v>
       </c>
-      <c r="J5" t="s">
-        <v>73</v>
+      <c r="J5" t="n">
+        <v>2673</v>
       </c>
       <c r="K5" t="n">
         <v>0.54</v>
       </c>
-      <c r="L5" t="s">
-        <v>74</v>
+      <c r="L5" t="n">
+        <v>4445</v>
       </c>
       <c r="M5" t="n">
         <v>0.87</v>
       </c>
-      <c r="N5" t="s">
-        <v>75</v>
+      <c r="N5" t="n">
+        <v>53374</v>
       </c>
       <c r="O5" t="n">
         <v>11.09</v>
       </c>
-      <c r="P5" t="s">
-        <v>76</v>
+      <c r="P5" t="n">
+        <v>66614</v>
       </c>
       <c r="Q5" t="n">
         <v>3.21</v>
       </c>
-      <c r="R5" t="s">
-        <v>77</v>
+      <c r="R5" t="n">
+        <v>1628</v>
       </c>
       <c r="S5" t="n">
         <v>0.34</v>
       </c>
-      <c r="T5" t="s">
-        <v>78</v>
+      <c r="T5" t="n">
+        <v>6802</v>
       </c>
       <c r="U5" t="n">
         <v>1.41</v>
       </c>
-      <c r="V5" t="s">
-        <v>79</v>
+      <c r="V5" t="n">
+        <v>62421</v>
       </c>
       <c r="W5" t="n">
         <v>15.11</v>
       </c>
-      <c r="X5" t="s">
-        <v>80</v>
+      <c r="X5" t="n">
+        <v>98155</v>
       </c>
       <c r="Y5" t="n">
         <v>5.28</v>
       </c>
-      <c r="Z5" t="s">
-        <v>81</v>
+      <c r="Z5" t="n">
+        <v>3931</v>
       </c>
       <c r="AA5" t="n">
         <v>1.02</v>
       </c>
-      <c r="AB5" t="s">
-        <v>82</v>
+      <c r="AB5" t="n">
+        <v>2924</v>
       </c>
       <c r="AC5" t="n">
         <v>0.72</v>
       </c>
-      <c r="AD5" t="s">
-        <v>83</v>
+      <c r="AD5" t="n">
+        <v>54130</v>
       </c>
       <c r="AE5" t="n">
         <v>18.04</v>
       </c>
-      <c r="AF5" t="s">
-        <v>84</v>
+      <c r="AF5" t="n">
+        <v>64546</v>
       </c>
       <c r="AG5" t="n">
         <v>4.37</v>
@@ -2135,100 +1001,100 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" t="s">
-        <v>86</v>
+        <v>36</v>
+      </c>
+      <c r="B6" t="n">
+        <v>121136</v>
       </c>
       <c r="C6" t="n">
         <v>26.32</v>
       </c>
-      <c r="D6" t="s">
-        <v>87</v>
+      <c r="D6" t="n">
+        <v>-45821</v>
       </c>
       <c r="E6" t="n">
         <v>-9.4</v>
       </c>
-      <c r="F6" t="s">
-        <v>88</v>
+      <c r="F6" t="n">
+        <v>54664</v>
       </c>
       <c r="G6" t="n">
         <v>10.91</v>
       </c>
-      <c r="H6" t="s">
-        <v>89</v>
+      <c r="H6" t="n">
+        <v>216128</v>
       </c>
       <c r="I6" t="n">
         <v>10.68</v>
       </c>
-      <c r="J6" t="s">
-        <v>90</v>
+      <c r="J6" t="n">
+        <v>83549</v>
       </c>
       <c r="K6" t="n">
         <v>16.85</v>
       </c>
-      <c r="L6" t="s">
-        <v>91</v>
+      <c r="L6" t="n">
+        <v>81277</v>
       </c>
       <c r="M6" t="n">
         <v>15.98</v>
       </c>
-      <c r="N6" t="s">
-        <v>92</v>
+      <c r="N6" t="n">
+        <v>-31586</v>
       </c>
       <c r="O6" t="n">
         <v>-6.56</v>
       </c>
-      <c r="P6" t="s">
-        <v>93</v>
+      <c r="P6" t="n">
+        <v>116800</v>
       </c>
       <c r="Q6" t="n">
         <v>5.62</v>
       </c>
-      <c r="R6" t="s">
-        <v>94</v>
+      <c r="R6" t="n">
+        <v>59880</v>
       </c>
       <c r="S6" t="n">
         <v>12.59</v>
       </c>
-      <c r="T6" t="s">
-        <v>95</v>
+      <c r="T6" t="n">
+        <v>-51655</v>
       </c>
       <c r="U6" t="n">
         <v>-10.69</v>
       </c>
-      <c r="V6" t="s">
-        <v>96</v>
+      <c r="V6" t="n">
+        <v>-277773</v>
       </c>
       <c r="W6" t="n">
         <v>-67.26000000000001</v>
       </c>
-      <c r="X6" t="s">
-        <v>97</v>
+      <c r="X6" t="n">
+        <v>-249155</v>
       </c>
       <c r="Y6" t="n">
         <v>-13.41</v>
       </c>
-      <c r="Z6" t="s">
-        <v>98</v>
+      <c r="Z6" t="n">
+        <v>60334</v>
       </c>
       <c r="AA6" t="n">
         <v>15.73</v>
       </c>
-      <c r="AB6" t="s">
-        <v>99</v>
+      <c r="AB6" t="n">
+        <v>-88015</v>
       </c>
       <c r="AC6" t="n">
         <v>-21.79</v>
       </c>
-      <c r="AD6" t="s">
-        <v>100</v>
+      <c r="AD6" t="n">
+        <v>-22095</v>
       </c>
       <c r="AE6" t="n">
         <v>-7.36</v>
       </c>
-      <c r="AF6" t="s">
-        <v>101</v>
+      <c r="AF6" t="n">
+        <v>-91853</v>
       </c>
       <c r="AG6" t="n">
         <v>-6.21</v>
@@ -2236,169 +1102,169 @@
     </row>
     <row r="7" spans="1:33">
       <c r="A7" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" t="s">
-        <v>103</v>
+        <v>37</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.11</v>
       </c>
       <c r="C7" t="s"/>
-      <c r="D7" t="s">
-        <v>104</v>
+      <c r="D7" t="n">
+        <v>0.03</v>
       </c>
       <c r="E7" t="s"/>
-      <c r="F7" t="s">
-        <v>105</v>
+      <c r="F7" t="n">
+        <v>0.19</v>
       </c>
       <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>106</v>
+      <c r="H7" t="n">
+        <v>0.26</v>
       </c>
       <c r="I7" t="s"/>
-      <c r="J7" t="s">
-        <v>107</v>
+      <c r="J7" t="n">
+        <v>0.12</v>
       </c>
       <c r="K7" t="s"/>
-      <c r="L7" t="s">
-        <v>108</v>
+      <c r="L7" t="n">
+        <v>0.06</v>
       </c>
       <c r="M7" t="s"/>
-      <c r="N7" t="s">
-        <v>103</v>
+      <c r="N7" t="n">
+        <v>0.11</v>
       </c>
       <c r="O7" t="s"/>
-      <c r="P7" t="s">
-        <v>109</v>
+      <c r="P7" t="n">
+        <v>0.25</v>
       </c>
       <c r="Q7" t="s"/>
-      <c r="R7" t="s">
-        <v>108</v>
+      <c r="R7" t="n">
+        <v>0.06</v>
       </c>
       <c r="S7" t="s"/>
-      <c r="T7" t="s">
-        <v>110</v>
+      <c r="T7" t="n">
+        <v>0.04</v>
       </c>
       <c r="U7" t="s"/>
-      <c r="V7" t="s">
-        <v>111</v>
+      <c r="V7" t="n">
+        <v>0.1</v>
       </c>
       <c r="W7" t="s"/>
-      <c r="X7" t="s">
-        <v>109</v>
+      <c r="X7" t="n">
+        <v>0.25</v>
       </c>
       <c r="Y7" t="s"/>
-      <c r="Z7" t="s">
-        <v>112</v>
+      <c r="Z7" t="n">
+        <v>0.21</v>
       </c>
       <c r="AA7" t="s"/>
-      <c r="AB7" t="s">
-        <v>104</v>
+      <c r="AB7" t="n">
+        <v>0.03</v>
       </c>
       <c r="AC7" t="s"/>
-      <c r="AD7" t="s">
-        <v>113</v>
+      <c r="AD7" t="n">
+        <v>-0.02</v>
       </c>
       <c r="AE7" t="s"/>
-      <c r="AF7" t="s">
-        <v>105</v>
+      <c r="AF7" t="n">
+        <v>0.19</v>
       </c>
       <c r="AG7" t="s"/>
     </row>
     <row r="8" spans="1:33">
       <c r="A8" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" t="s">
-        <v>115</v>
+        <v>38</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-1596</v>
       </c>
       <c r="C8" t="n">
         <v>-0.35</v>
       </c>
-      <c r="D8" t="s">
-        <v>116</v>
+      <c r="D8" t="n">
+        <v>-10181</v>
       </c>
       <c r="E8" t="n">
         <v>-2.09</v>
       </c>
-      <c r="F8" t="s">
-        <v>117</v>
+      <c r="F8" t="n">
+        <v>-3720</v>
       </c>
       <c r="G8" t="n">
         <v>-0.74</v>
       </c>
-      <c r="H8" t="s">
-        <v>118</v>
+      <c r="H8" t="n">
+        <v>-34930</v>
       </c>
       <c r="I8" t="n">
         <v>-1.73</v>
       </c>
-      <c r="J8" t="s">
-        <v>119</v>
+      <c r="J8" t="n">
+        <v>-6483</v>
       </c>
       <c r="K8" t="n">
         <v>-1.31</v>
       </c>
-      <c r="L8" t="s">
-        <v>120</v>
+      <c r="L8" t="n">
+        <v>5825</v>
       </c>
       <c r="M8" t="n">
         <v>1.15</v>
       </c>
-      <c r="N8" t="s">
-        <v>121</v>
+      <c r="N8" t="n">
+        <v>2139</v>
       </c>
       <c r="O8" t="n">
         <v>0.44</v>
       </c>
-      <c r="P8" t="s">
-        <v>122</v>
+      <c r="P8" t="n">
+        <v>-11396</v>
       </c>
       <c r="Q8" t="n">
         <v>-0.55</v>
       </c>
-      <c r="R8" t="s">
-        <v>123</v>
+      <c r="R8" t="n">
+        <v>-4546</v>
       </c>
       <c r="S8" t="n">
         <v>-0.96</v>
       </c>
-      <c r="T8" t="s">
-        <v>124</v>
+      <c r="T8" t="n">
+        <v>1566</v>
       </c>
       <c r="U8" t="n">
         <v>0.32</v>
       </c>
-      <c r="V8" t="s">
-        <v>125</v>
+      <c r="V8" t="n">
+        <v>3104</v>
       </c>
       <c r="W8" t="n">
         <v>0.75</v>
       </c>
-      <c r="X8" t="s">
-        <v>126</v>
+      <c r="X8" t="n">
+        <v>-507</v>
       </c>
       <c r="Y8" t="n">
         <v>-0.03</v>
       </c>
-      <c r="Z8" t="s">
-        <v>127</v>
+      <c r="Z8" t="n">
+        <v>-19341</v>
       </c>
       <c r="AA8" t="n">
         <v>-5.04</v>
       </c>
-      <c r="AB8" t="s">
-        <v>128</v>
+      <c r="AB8" t="n">
+        <v>697</v>
       </c>
       <c r="AC8" t="n">
         <v>0.17</v>
       </c>
-      <c r="AD8" t="s">
-        <v>129</v>
+      <c r="AD8" t="n">
+        <v>-780</v>
       </c>
       <c r="AE8" t="n">
         <v>-0.26</v>
       </c>
-      <c r="AF8" t="s">
-        <v>130</v>
+      <c r="AF8" t="n">
+        <v>9733</v>
       </c>
       <c r="AG8" t="n">
         <v>0.66</v>
@@ -2406,52 +1272,52 @@
     </row>
     <row r="9" spans="1:33">
       <c r="A9" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B9" t="s">
-        <v>132</v>
+        <v>39</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-413</v>
       </c>
       <c r="C9" t="n">
         <v>-0.09</v>
       </c>
-      <c r="D9" t="s">
-        <v>133</v>
+      <c r="D9" t="n">
+        <v>1560</v>
       </c>
       <c r="E9" t="n">
         <v>0.32</v>
       </c>
-      <c r="F9" t="s">
-        <v>134</v>
+      <c r="F9" t="n">
+        <v>275</v>
       </c>
       <c r="G9" t="n">
         <v>0.05</v>
       </c>
-      <c r="H9" t="s">
-        <v>135</v>
+      <c r="H9" t="n">
+        <v>3473</v>
       </c>
       <c r="I9" t="n">
         <v>0.17</v>
       </c>
-      <c r="J9" t="s">
-        <v>136</v>
+      <c r="J9" t="n">
+        <v>-458</v>
       </c>
       <c r="K9" t="n">
         <v>-0.09</v>
       </c>
-      <c r="L9" t="s">
-        <v>137</v>
+      <c r="L9" t="n">
+        <v>-1193</v>
       </c>
       <c r="M9" t="n">
         <v>-0.23</v>
       </c>
-      <c r="N9" t="s">
-        <v>138</v>
+      <c r="N9" t="n">
+        <v>963</v>
       </c>
       <c r="O9" t="n">
         <v>0.2</v>
       </c>
-      <c r="P9" t="s">
-        <v>139</v>
+      <c r="P9" t="n">
+        <v>-443</v>
       </c>
       <c r="Q9" t="n">
         <v>-0.02</v>
@@ -2462,8 +1328,8 @@
       <c r="U9" t="s"/>
       <c r="V9" t="s"/>
       <c r="W9" t="s"/>
-      <c r="X9" t="s">
-        <v>140</v>
+      <c r="X9" t="n">
+        <v>-225</v>
       </c>
       <c r="Y9" t="n">
         <v>-0.01</v>
@@ -2474,8 +1340,8 @@
       <c r="AC9" t="s"/>
       <c r="AD9" t="s"/>
       <c r="AE9" t="s"/>
-      <c r="AF9" t="s">
-        <v>141</v>
+      <c r="AF9" t="n">
+        <v>143</v>
       </c>
       <c r="AG9" t="n">
         <v>0.01</v>
@@ -2483,100 +1349,100 @@
     </row>
     <row r="10" spans="1:33">
       <c r="A10" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B10" t="s">
-        <v>143</v>
+        <v>40</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-1355</v>
       </c>
       <c r="C10" t="n">
         <v>-0.29</v>
       </c>
-      <c r="D10" t="s">
-        <v>144</v>
+      <c r="D10" t="n">
+        <v>869</v>
       </c>
       <c r="E10" t="n">
         <v>0.18</v>
       </c>
-      <c r="F10" t="s">
-        <v>145</v>
+      <c r="F10" t="n">
+        <v>545</v>
       </c>
       <c r="G10" t="n">
         <v>0.11</v>
       </c>
-      <c r="H10" t="s">
-        <v>146</v>
+      <c r="H10" t="n">
+        <v>2287</v>
       </c>
       <c r="I10" t="n">
         <v>0.11</v>
       </c>
-      <c r="J10" t="s">
-        <v>147</v>
+      <c r="J10" t="n">
+        <v>-3372</v>
       </c>
       <c r="K10" t="n">
         <v>-0.68</v>
       </c>
-      <c r="L10" t="s">
-        <v>148</v>
+      <c r="L10" t="n">
+        <v>-5393</v>
       </c>
       <c r="M10" t="n">
         <v>-1.06</v>
       </c>
-      <c r="N10" t="s">
-        <v>149</v>
+      <c r="N10" t="n">
+        <v>-1074</v>
       </c>
       <c r="O10" t="n">
         <v>-0.22</v>
       </c>
-      <c r="P10" t="s">
-        <v>150</v>
+      <c r="P10" t="n">
+        <v>5971</v>
       </c>
       <c r="Q10" t="n">
         <v>0.29</v>
       </c>
-      <c r="R10" t="s">
-        <v>151</v>
+      <c r="R10" t="n">
+        <v>-3057</v>
       </c>
       <c r="S10" t="n">
         <v>-0.64</v>
       </c>
-      <c r="T10" t="s">
-        <v>152</v>
+      <c r="T10" t="n">
+        <v>-637</v>
       </c>
       <c r="U10" t="n">
         <v>-0.13</v>
       </c>
-      <c r="V10" t="s">
-        <v>153</v>
+      <c r="V10" t="n">
+        <v>1588</v>
       </c>
       <c r="W10" t="n">
         <v>0.38</v>
       </c>
-      <c r="X10" t="s">
-        <v>154</v>
+      <c r="X10" t="n">
+        <v>-6290</v>
       </c>
       <c r="Y10" t="n">
         <v>-0.34</v>
       </c>
-      <c r="Z10" t="s">
-        <v>155</v>
+      <c r="Z10" t="n">
+        <v>759</v>
       </c>
       <c r="AA10" t="n">
         <v>0.2</v>
       </c>
-      <c r="AB10" t="s">
-        <v>156</v>
+      <c r="AB10" t="n">
+        <v>1211</v>
       </c>
       <c r="AC10" t="n">
         <v>0.3</v>
       </c>
-      <c r="AD10" t="s">
-        <v>157</v>
+      <c r="AD10" t="n">
+        <v>3285</v>
       </c>
       <c r="AE10" t="n">
         <v>1.09</v>
       </c>
-      <c r="AF10" t="s">
-        <v>158</v>
+      <c r="AF10" t="n">
+        <v>7883</v>
       </c>
       <c r="AG10" t="n">
         <v>0.53</v>
@@ -2584,7 +1450,7 @@
     </row>
     <row r="11" spans="1:33">
       <c r="A11" s="1" t="s">
-        <v>159</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s"/>
       <c r="C11" t="s"/>
@@ -2602,50 +1468,50 @@
       <c r="O11" t="s"/>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="s">
-        <v>160</v>
+      <c r="R11" t="n">
+        <v>-275</v>
       </c>
       <c r="S11" t="n">
         <v>-0.06</v>
       </c>
-      <c r="T11" t="s">
-        <v>161</v>
+      <c r="T11" t="n">
+        <v>-1532</v>
       </c>
       <c r="U11" t="n">
         <v>-0.32</v>
       </c>
-      <c r="V11" t="s">
-        <v>162</v>
+      <c r="V11" t="n">
+        <v>64</v>
       </c>
       <c r="W11" t="n">
         <v>0.02</v>
       </c>
-      <c r="X11" t="s">
-        <v>163</v>
+      <c r="X11" t="n">
+        <v>-1101</v>
       </c>
       <c r="Y11" t="n">
         <v>-0.06</v>
       </c>
-      <c r="Z11" t="s">
-        <v>164</v>
+      <c r="Z11" t="n">
+        <v>-597</v>
       </c>
       <c r="AA11" t="n">
         <v>-0.16</v>
       </c>
-      <c r="AB11" t="s">
-        <v>165</v>
+      <c r="AB11" t="n">
+        <v>47</v>
       </c>
       <c r="AC11" t="n">
         <v>0.01</v>
       </c>
-      <c r="AD11" t="s">
-        <v>134</v>
+      <c r="AD11" t="n">
+        <v>275</v>
       </c>
       <c r="AE11" t="n">
         <v>0.09</v>
       </c>
-      <c r="AF11" t="s">
-        <v>166</v>
+      <c r="AF11" t="n">
+        <v>183</v>
       </c>
       <c r="AG11" t="n">
         <v>0.01</v>
@@ -2653,100 +1519,100 @@
     </row>
     <row r="12" spans="1:33">
       <c r="A12" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B12" t="s">
-        <v>168</v>
+        <v>42</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2501</v>
       </c>
       <c r="C12" t="n">
         <v>0.54</v>
       </c>
-      <c r="D12" t="s">
-        <v>169</v>
+      <c r="D12" t="n">
+        <v>2366</v>
       </c>
       <c r="E12" t="n">
         <v>0.49</v>
       </c>
-      <c r="F12" t="s">
-        <v>170</v>
+      <c r="F12" t="n">
+        <v>1605</v>
       </c>
       <c r="G12" t="n">
         <v>0.32</v>
       </c>
-      <c r="H12" t="s">
-        <v>171</v>
+      <c r="H12" t="n">
+        <v>8637</v>
       </c>
       <c r="I12" t="n">
         <v>0.43</v>
       </c>
-      <c r="J12" t="s">
-        <v>172</v>
+      <c r="J12" t="n">
+        <v>2260</v>
       </c>
       <c r="K12" t="n">
         <v>0.46</v>
       </c>
-      <c r="L12" t="s">
-        <v>173</v>
+      <c r="L12" t="n">
+        <v>1259</v>
       </c>
       <c r="M12" t="n">
         <v>0.25</v>
       </c>
-      <c r="N12" t="s">
-        <v>174</v>
+      <c r="N12" t="n">
+        <v>1351</v>
       </c>
       <c r="O12" t="n">
         <v>0.28</v>
       </c>
-      <c r="P12" t="s">
-        <v>175</v>
+      <c r="P12" t="n">
+        <v>6662</v>
       </c>
       <c r="Q12" t="n">
         <v>0.32</v>
       </c>
-      <c r="R12" t="s">
-        <v>176</v>
+      <c r="R12" t="n">
+        <v>2334</v>
       </c>
       <c r="S12" t="n">
         <v>0.49</v>
       </c>
-      <c r="T12" t="s">
-        <v>177</v>
+      <c r="T12" t="n">
+        <v>1258</v>
       </c>
       <c r="U12" t="n">
         <v>0.26</v>
       </c>
-      <c r="V12" t="s">
-        <v>178</v>
+      <c r="V12" t="n">
+        <v>1307</v>
       </c>
       <c r="W12" t="n">
         <v>0.32</v>
       </c>
-      <c r="X12" t="s">
-        <v>179</v>
+      <c r="X12" t="n">
+        <v>7311</v>
       </c>
       <c r="Y12" t="n">
         <v>0.39</v>
       </c>
-      <c r="Z12" t="s">
-        <v>180</v>
+      <c r="Z12" t="n">
+        <v>3407</v>
       </c>
       <c r="AA12" t="n">
         <v>0.89</v>
       </c>
-      <c r="AB12" t="s">
-        <v>181</v>
+      <c r="AB12" t="n">
+        <v>2347</v>
       </c>
       <c r="AC12" t="n">
         <v>0.58</v>
       </c>
-      <c r="AD12" t="s">
-        <v>182</v>
+      <c r="AD12" t="n">
+        <v>2608</v>
       </c>
       <c r="AE12" t="n">
         <v>0.87</v>
       </c>
-      <c r="AF12" t="s">
-        <v>183</v>
+      <c r="AF12" t="n">
+        <v>11578</v>
       </c>
       <c r="AG12" t="n">
         <v>0.78</v>
@@ -2754,100 +1620,100 @@
     </row>
     <row r="13" spans="1:33">
       <c r="A13" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B13" t="s">
-        <v>185</v>
+        <v>43</v>
+      </c>
+      <c r="B13" t="n">
+        <v>61097</v>
       </c>
       <c r="C13" t="n">
         <v>13.28</v>
       </c>
-      <c r="D13" t="s">
-        <v>186</v>
+      <c r="D13" t="n">
+        <v>17151</v>
       </c>
       <c r="E13" t="n">
         <v>3.52</v>
       </c>
-      <c r="F13" t="s">
-        <v>187</v>
+      <c r="F13" t="n">
+        <v>109032</v>
       </c>
       <c r="G13" t="n">
         <v>21.76</v>
       </c>
-      <c r="H13" t="s">
-        <v>188</v>
+      <c r="H13" t="n">
+        <v>146860</v>
       </c>
       <c r="I13" t="n">
         <v>7.25</v>
       </c>
-      <c r="J13" t="s">
-        <v>189</v>
+      <c r="J13" t="n">
+        <v>68173</v>
       </c>
       <c r="K13" t="n">
         <v>13.75</v>
       </c>
-      <c r="L13" t="s">
-        <v>190</v>
+      <c r="L13" t="n">
+        <v>36589</v>
       </c>
       <c r="M13" t="n">
         <v>7.19</v>
       </c>
-      <c r="N13" t="s">
-        <v>191</v>
+      <c r="N13" t="n">
+        <v>63447</v>
       </c>
       <c r="O13" t="n">
         <v>13.18</v>
       </c>
-      <c r="P13" t="s">
-        <v>192</v>
+      <c r="P13" t="n">
+        <v>142301</v>
       </c>
       <c r="Q13" t="n">
         <v>6.85</v>
       </c>
-      <c r="R13" t="s">
-        <v>193</v>
+      <c r="R13" t="n">
+        <v>35987</v>
       </c>
       <c r="S13" t="n">
         <v>7.57</v>
       </c>
-      <c r="T13" t="s">
-        <v>194</v>
+      <c r="T13" t="n">
+        <v>24910</v>
       </c>
       <c r="U13" t="n">
         <v>5.15</v>
       </c>
-      <c r="V13" t="s">
-        <v>195</v>
+      <c r="V13" t="n">
+        <v>61391</v>
       </c>
       <c r="W13" t="n">
         <v>14.86</v>
       </c>
-      <c r="X13" t="s">
-        <v>196</v>
+      <c r="X13" t="n">
+        <v>144466</v>
       </c>
       <c r="Y13" t="n">
         <v>7.78</v>
       </c>
-      <c r="Z13" t="s">
-        <v>197</v>
+      <c r="Z13" t="n">
+        <v>216613</v>
       </c>
       <c r="AA13" t="n">
         <v>56.46</v>
       </c>
-      <c r="AB13" t="s">
-        <v>198</v>
+      <c r="AB13" t="n">
+        <v>18707</v>
       </c>
       <c r="AC13" t="n">
         <v>4.63</v>
       </c>
-      <c r="AD13" t="s">
-        <v>199</v>
+      <c r="AD13" t="n">
+        <v>-8727</v>
       </c>
       <c r="AE13" t="n">
         <v>-2.91</v>
       </c>
-      <c r="AF13" t="s">
-        <v>200</v>
+      <c r="AF13" t="n">
+        <v>207603</v>
       </c>
       <c r="AG13" t="n">
         <v>14.04</v>
@@ -2855,100 +1721,100 @@
     </row>
     <row r="14" spans="1:33">
       <c r="A14" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B14" t="s">
-        <v>202</v>
+        <v>44</v>
+      </c>
+      <c r="B14" t="n">
+        <v>182233</v>
       </c>
       <c r="C14" t="n">
         <v>39.6</v>
       </c>
-      <c r="D14" t="s">
-        <v>203</v>
+      <c r="D14" t="n">
+        <v>-28670</v>
       </c>
       <c r="E14" t="n">
         <v>-5.88</v>
       </c>
-      <c r="F14" t="s">
-        <v>204</v>
+      <c r="F14" t="n">
+        <v>163696</v>
       </c>
       <c r="G14" t="n">
         <v>32.67</v>
       </c>
-      <c r="H14" t="s">
-        <v>205</v>
+      <c r="H14" t="n">
+        <v>362988</v>
       </c>
       <c r="I14" t="n">
         <v>17.93</v>
       </c>
-      <c r="J14" t="s">
-        <v>206</v>
+      <c r="J14" t="n">
+        <v>151722</v>
       </c>
       <c r="K14" t="n">
         <v>30.61</v>
       </c>
-      <c r="L14" t="s">
-        <v>207</v>
+      <c r="L14" t="n">
+        <v>117866</v>
       </c>
       <c r="M14" t="n">
         <v>23.18</v>
       </c>
-      <c r="N14" t="s">
-        <v>208</v>
+      <c r="N14" t="n">
+        <v>31861</v>
       </c>
       <c r="O14" t="n">
         <v>6.62</v>
       </c>
-      <c r="P14" t="s">
-        <v>209</v>
+      <c r="P14" t="n">
+        <v>259101</v>
       </c>
       <c r="Q14" t="n">
         <v>12.47</v>
       </c>
-      <c r="R14" t="s">
-        <v>210</v>
+      <c r="R14" t="n">
+        <v>95867</v>
       </c>
       <c r="S14" t="n">
         <v>20.16</v>
       </c>
-      <c r="T14" t="s">
-        <v>211</v>
+      <c r="T14" t="n">
+        <v>-26745</v>
       </c>
       <c r="U14" t="n">
         <v>-5.53</v>
       </c>
-      <c r="V14" t="s">
-        <v>212</v>
+      <c r="V14" t="n">
+        <v>-216382</v>
       </c>
       <c r="W14" t="n">
         <v>-52.39</v>
       </c>
-      <c r="X14" t="s">
-        <v>213</v>
+      <c r="X14" t="n">
+        <v>-104689</v>
       </c>
       <c r="Y14" t="n">
         <v>-5.64</v>
       </c>
-      <c r="Z14" t="s">
-        <v>214</v>
+      <c r="Z14" t="n">
+        <v>276947</v>
       </c>
       <c r="AA14" t="n">
         <v>72.18000000000001</v>
       </c>
-      <c r="AB14" t="s">
-        <v>215</v>
+      <c r="AB14" t="n">
+        <v>-69308</v>
       </c>
       <c r="AC14" t="n">
         <v>-17.16</v>
       </c>
-      <c r="AD14" t="s">
-        <v>216</v>
+      <c r="AD14" t="n">
+        <v>-30822</v>
       </c>
       <c r="AE14" t="n">
         <v>-10.27</v>
       </c>
-      <c r="AF14" t="s">
-        <v>217</v>
+      <c r="AF14" t="n">
+        <v>115750</v>
       </c>
       <c r="AG14" t="n">
         <v>7.83</v>
@@ -2956,100 +1822,100 @@
     </row>
     <row r="15" spans="1:33">
       <c r="A15" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B15" t="s">
-        <v>219</v>
+        <v>45</v>
+      </c>
+      <c r="B15" t="n">
+        <v>60801</v>
       </c>
       <c r="C15" t="n">
         <v>13.21</v>
       </c>
-      <c r="D15" t="s">
-        <v>220</v>
+      <c r="D15" t="n">
+        <v>16990</v>
       </c>
       <c r="E15" t="n">
         <v>3.48</v>
       </c>
-      <c r="F15" t="s">
-        <v>221</v>
+      <c r="F15" t="n">
+        <v>108815</v>
       </c>
       <c r="G15" t="n">
         <v>21.72</v>
       </c>
-      <c r="H15" t="s">
-        <v>222</v>
+      <c r="H15" t="n">
+        <v>146033</v>
       </c>
       <c r="I15" t="n">
         <v>7.21</v>
       </c>
-      <c r="J15" t="s">
-        <v>223</v>
+      <c r="J15" t="n">
+        <v>67967</v>
       </c>
       <c r="K15" t="n">
         <v>13.71</v>
       </c>
-      <c r="L15" t="s">
-        <v>224</v>
+      <c r="L15" t="n">
+        <v>36509</v>
       </c>
       <c r="M15" t="n">
         <v>7.18</v>
       </c>
-      <c r="N15" t="s">
-        <v>225</v>
+      <c r="N15" t="n">
+        <v>63250</v>
       </c>
       <c r="O15" t="n">
         <v>13.14</v>
       </c>
-      <c r="P15" t="s">
-        <v>226</v>
+      <c r="P15" t="n">
+        <v>141765</v>
       </c>
       <c r="Q15" t="n">
         <v>6.82</v>
       </c>
-      <c r="R15" t="s">
-        <v>227</v>
+      <c r="R15" t="n">
+        <v>35833</v>
       </c>
       <c r="S15" t="n">
         <v>7.54</v>
       </c>
-      <c r="T15" t="s">
-        <v>228</v>
+      <c r="T15" t="n">
+        <v>24796</v>
       </c>
       <c r="U15" t="n">
         <v>5.13</v>
       </c>
-      <c r="V15" t="s">
-        <v>229</v>
+      <c r="V15" t="n">
+        <v>61269</v>
       </c>
       <c r="W15" t="n">
         <v>14.83</v>
       </c>
-      <c r="X15" t="s">
-        <v>230</v>
+      <c r="X15" t="n">
+        <v>143995</v>
       </c>
       <c r="Y15" t="n">
         <v>7.75</v>
       </c>
-      <c r="Z15" t="s">
-        <v>231</v>
+      <c r="Z15" t="n">
+        <v>117463</v>
       </c>
       <c r="AA15" t="n">
         <v>30.62</v>
       </c>
-      <c r="AB15" t="s">
-        <v>232</v>
+      <c r="AB15" t="n">
+        <v>18208</v>
       </c>
       <c r="AC15" t="n">
         <v>4.51</v>
       </c>
-      <c r="AD15" t="s">
-        <v>233</v>
+      <c r="AD15" t="n">
+        <v>-8980</v>
       </c>
       <c r="AE15" t="n">
         <v>-2.99</v>
       </c>
-      <c r="AF15" t="s">
-        <v>234</v>
+      <c r="AF15" t="n">
+        <v>108418</v>
       </c>
       <c r="AG15" t="n">
         <v>7.33</v>
@@ -3057,100 +1923,100 @@
     </row>
     <row r="16" spans="1:33">
       <c r="A16" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B16" t="s">
-        <v>236</v>
+        <v>46</v>
+      </c>
+      <c r="B16" t="n">
+        <v>181938</v>
       </c>
       <c r="C16" t="n">
         <v>39.53</v>
       </c>
-      <c r="D16" t="s">
-        <v>237</v>
+      <c r="D16" t="n">
+        <v>-28834</v>
       </c>
       <c r="E16" t="n">
         <v>-5.91</v>
       </c>
-      <c r="F16" t="s">
-        <v>238</v>
+      <c r="F16" t="n">
+        <v>163478</v>
       </c>
       <c r="G16" t="n">
         <v>32.63</v>
       </c>
-      <c r="H16" t="s">
-        <v>239</v>
+      <c r="H16" t="n">
+        <v>362154</v>
       </c>
       <c r="I16" t="n">
         <v>17.89</v>
       </c>
-      <c r="J16" t="s">
-        <v>240</v>
+      <c r="J16" t="n">
+        <v>151517</v>
       </c>
       <c r="K16" t="n">
         <v>30.56</v>
       </c>
-      <c r="L16" t="s">
-        <v>241</v>
+      <c r="L16" t="n">
+        <v>117787</v>
       </c>
       <c r="M16" t="n">
         <v>23.16</v>
       </c>
-      <c r="N16" t="s">
-        <v>242</v>
+      <c r="N16" t="n">
+        <v>31662</v>
       </c>
       <c r="O16" t="n">
         <v>6.58</v>
       </c>
-      <c r="P16" t="s">
-        <v>243</v>
+      <c r="P16" t="n">
+        <v>258565</v>
       </c>
       <c r="Q16" t="n">
         <v>12.44</v>
       </c>
-      <c r="R16" t="s">
-        <v>244</v>
+      <c r="R16" t="n">
+        <v>95714</v>
       </c>
       <c r="S16" t="n">
         <v>20.13</v>
       </c>
-      <c r="T16" t="s">
-        <v>245</v>
+      <c r="T16" t="n">
+        <v>-26856</v>
       </c>
       <c r="U16" t="n">
         <v>-5.56</v>
       </c>
-      <c r="V16" t="s">
-        <v>246</v>
+      <c r="V16" t="n">
+        <v>-216504</v>
       </c>
       <c r="W16" t="n">
         <v>-52.42</v>
       </c>
-      <c r="X16" t="s">
-        <v>247</v>
+      <c r="X16" t="n">
+        <v>-105156</v>
       </c>
       <c r="Y16" t="n">
         <v>-5.66</v>
       </c>
-      <c r="Z16" t="s">
-        <v>248</v>
+      <c r="Z16" t="n">
+        <v>177798</v>
       </c>
       <c r="AA16" t="n">
         <v>46.34</v>
       </c>
-      <c r="AB16" t="s">
-        <v>249</v>
+      <c r="AB16" t="n">
+        <v>-69807</v>
       </c>
       <c r="AC16" t="n">
         <v>-17.28</v>
       </c>
-      <c r="AD16" t="s">
-        <v>250</v>
+      <c r="AD16" t="n">
+        <v>-31075</v>
       </c>
       <c r="AE16" t="n">
         <v>-10.35</v>
       </c>
-      <c r="AF16" t="s">
-        <v>251</v>
+      <c r="AF16" t="n">
+        <v>16564</v>
       </c>
       <c r="AG16" t="n">
         <v>1.12</v>
@@ -3158,100 +2024,100 @@
     </row>
     <row r="17" spans="1:33">
       <c r="A17" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B17" t="s">
-        <v>253</v>
+        <v>47</v>
+      </c>
+      <c r="B17" t="n">
+        <v>51795</v>
       </c>
       <c r="C17" t="n">
         <v>11.25</v>
       </c>
-      <c r="D17" t="s">
-        <v>254</v>
+      <c r="D17" t="n">
+        <v>54482</v>
       </c>
       <c r="E17" t="n">
         <v>11.17</v>
       </c>
-      <c r="F17" t="s">
-        <v>255</v>
+      <c r="F17" t="n">
+        <v>50826</v>
       </c>
       <c r="G17" t="n">
         <v>10.14</v>
       </c>
-      <c r="H17" t="s">
-        <v>256</v>
+      <c r="H17" t="n">
+        <v>194430</v>
       </c>
       <c r="I17" t="n">
         <v>9.6</v>
       </c>
-      <c r="J17" t="s">
-        <v>257</v>
+      <c r="J17" t="n">
+        <v>54922</v>
       </c>
       <c r="K17" t="n">
         <v>11.08</v>
       </c>
-      <c r="L17" t="s">
-        <v>258</v>
+      <c r="L17" t="n">
+        <v>38582</v>
       </c>
       <c r="M17" t="n">
         <v>7.59</v>
       </c>
-      <c r="N17" t="s">
-        <v>259</v>
+      <c r="N17" t="n">
+        <v>1871</v>
       </c>
       <c r="O17" t="n">
         <v>0.39</v>
       </c>
-      <c r="P17" t="s">
-        <v>260</v>
+      <c r="P17" t="n">
+        <v>131940</v>
       </c>
       <c r="Q17" t="n">
         <v>6.35</v>
       </c>
-      <c r="R17" t="s">
-        <v>261</v>
+      <c r="R17" t="n">
+        <v>32740</v>
       </c>
       <c r="S17" t="n">
         <v>6.89</v>
       </c>
-      <c r="T17" t="s">
-        <v>262</v>
+      <c r="T17" t="n">
+        <v>24169</v>
       </c>
       <c r="U17" t="n">
         <v>5</v>
       </c>
-      <c r="V17" t="s">
-        <v>263</v>
+      <c r="V17" t="n">
+        <v>12226</v>
       </c>
       <c r="W17" t="n">
         <v>2.96</v>
       </c>
-      <c r="X17" t="s">
-        <v>264</v>
+      <c r="X17" t="n">
+        <v>71282</v>
       </c>
       <c r="Y17" t="n">
         <v>3.84</v>
       </c>
-      <c r="Z17" t="s">
-        <v>265</v>
+      <c r="Z17" t="n">
+        <v>15784</v>
       </c>
       <c r="AA17" t="n">
         <v>4.11</v>
       </c>
-      <c r="AB17" t="s">
-        <v>266</v>
+      <c r="AB17" t="n">
+        <v>4709</v>
       </c>
       <c r="AC17" t="n">
         <v>1.17</v>
       </c>
-      <c r="AD17" t="s">
-        <v>267</v>
+      <c r="AD17" t="n">
+        <v>-65089</v>
       </c>
       <c r="AE17" t="n">
         <v>-21.69</v>
       </c>
-      <c r="AF17" t="s">
-        <v>268</v>
+      <c r="AF17" t="n">
+        <v>-75303</v>
       </c>
       <c r="AG17" t="n">
         <v>-5.09</v>
@@ -3259,100 +2125,100 @@
     </row>
     <row r="18" spans="1:33">
       <c r="A18" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B18" t="s">
-        <v>270</v>
+        <v>48</v>
+      </c>
+      <c r="B18" t="n">
+        <v>7706</v>
       </c>
       <c r="C18" t="n">
         <v>1.67</v>
       </c>
-      <c r="D18" t="s">
-        <v>271</v>
+      <c r="D18" t="n">
+        <v>-47512</v>
       </c>
       <c r="E18" t="n">
         <v>-9.74</v>
       </c>
-      <c r="F18" t="s">
-        <v>272</v>
+      <c r="F18" t="n">
+        <v>54486</v>
       </c>
       <c r="G18" t="n">
         <v>10.88</v>
       </c>
-      <c r="H18" t="s">
-        <v>273</v>
+      <c r="H18" t="n">
+        <v>-82500</v>
       </c>
       <c r="I18" t="n">
         <v>-4.07</v>
       </c>
-      <c r="J18" t="s">
-        <v>274</v>
+      <c r="J18" t="n">
+        <v>6768</v>
       </c>
       <c r="K18" t="n">
         <v>1.37</v>
       </c>
-      <c r="L18" t="s">
-        <v>275</v>
+      <c r="L18" t="n">
+        <v>3832</v>
       </c>
       <c r="M18" t="n">
         <v>0.75</v>
       </c>
-      <c r="N18" t="s">
-        <v>276</v>
+      <c r="N18" t="n">
+        <v>63715</v>
       </c>
       <c r="O18" t="n">
         <v>13.23</v>
       </c>
-      <c r="P18" t="s">
-        <v>277</v>
+      <c r="P18" t="n">
+        <v>-1035</v>
       </c>
       <c r="Q18" t="n">
         <v>-0.05</v>
       </c>
-      <c r="R18" t="s">
-        <v>278</v>
+      <c r="R18" t="n">
+        <v>-1299</v>
       </c>
       <c r="S18" t="n">
         <v>-0.27</v>
       </c>
-      <c r="T18" t="s">
-        <v>279</v>
+      <c r="T18" t="n">
+        <v>2307</v>
       </c>
       <c r="U18" t="n">
         <v>0.48</v>
       </c>
-      <c r="V18" t="s">
-        <v>280</v>
+      <c r="V18" t="n">
+        <v>52269</v>
       </c>
       <c r="W18" t="n">
         <v>12.66</v>
       </c>
-      <c r="X18" t="s">
-        <v>281</v>
+      <c r="X18" t="n">
+        <v>72677</v>
       </c>
       <c r="Y18" t="n">
         <v>3.91</v>
       </c>
-      <c r="Z18" t="s">
-        <v>282</v>
+      <c r="Z18" t="n">
+        <v>181488</v>
       </c>
       <c r="AA18" t="n">
         <v>47.3</v>
       </c>
-      <c r="AB18" t="s">
-        <v>283</v>
+      <c r="AB18" t="n">
+        <v>14695</v>
       </c>
       <c r="AC18" t="n">
         <v>3.64</v>
       </c>
-      <c r="AD18" t="s">
-        <v>284</v>
+      <c r="AD18" t="n">
+        <v>55582</v>
       </c>
       <c r="AE18" t="n">
         <v>18.52</v>
       </c>
-      <c r="AF18" t="s">
-        <v>285</v>
+      <c r="AF18" t="n">
+        <v>292639</v>
       </c>
       <c r="AG18" t="n">
         <v>19.79</v>
@@ -3360,100 +2226,100 @@
     </row>
     <row r="19" spans="1:33">
       <c r="A19" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B19" t="s">
-        <v>287</v>
+        <v>49</v>
+      </c>
+      <c r="B19" t="n">
+        <v>393630</v>
       </c>
       <c r="C19" t="n">
         <v>85.53</v>
       </c>
-      <c r="D19" t="s">
-        <v>288</v>
+      <c r="D19" t="n">
+        <v>419977</v>
       </c>
       <c r="E19" t="n">
         <v>86.12</v>
       </c>
-      <c r="F19" t="s">
-        <v>289</v>
+      <c r="F19" t="n">
+        <v>436469</v>
       </c>
       <c r="G19" t="n">
         <v>87.12</v>
       </c>
-      <c r="H19" t="s">
-        <v>290</v>
+      <c r="H19" t="n">
+        <v>1766933</v>
       </c>
       <c r="I19" t="n">
         <v>87.27</v>
       </c>
-      <c r="J19" t="s">
-        <v>291</v>
+      <c r="J19" t="n">
+        <v>423693</v>
       </c>
       <c r="K19" t="n">
         <v>85.47</v>
       </c>
-      <c r="L19" t="s">
-        <v>292</v>
+      <c r="L19" t="n">
+        <v>454883</v>
       </c>
       <c r="M19" t="n">
         <v>89.44</v>
       </c>
-      <c r="N19" t="s">
-        <v>293</v>
+      <c r="N19" t="n">
+        <v>453290</v>
       </c>
       <c r="O19" t="n">
         <v>94.15000000000001</v>
       </c>
-      <c r="P19" t="s">
-        <v>294</v>
+      <c r="P19" t="n">
+        <v>1865890</v>
       </c>
       <c r="Q19" t="n">
         <v>89.78</v>
       </c>
-      <c r="R19" t="s">
-        <v>295</v>
+      <c r="R19" t="n">
+        <v>428669</v>
       </c>
       <c r="S19" t="n">
         <v>90.16</v>
       </c>
-      <c r="T19" t="s">
-        <v>296</v>
+      <c r="T19" t="n">
+        <v>444616</v>
       </c>
       <c r="U19" t="n">
         <v>91.98</v>
       </c>
-      <c r="V19" t="s">
-        <v>297</v>
+      <c r="V19" t="n">
+        <v>386050</v>
       </c>
       <c r="W19" t="n">
         <v>93.47</v>
       </c>
-      <c r="X19" t="s">
-        <v>298</v>
+      <c r="X19" t="n">
+        <v>1718202</v>
       </c>
       <c r="Y19" t="n">
         <v>92.51000000000001</v>
       </c>
-      <c r="Z19" t="s">
-        <v>299</v>
+      <c r="Z19" t="n">
+        <v>347147</v>
       </c>
       <c r="AA19" t="n">
         <v>90.48</v>
       </c>
-      <c r="AB19" t="s">
-        <v>300</v>
+      <c r="AB19" t="n">
+        <v>384500</v>
       </c>
       <c r="AC19" t="n">
         <v>95.19</v>
       </c>
-      <c r="AD19" t="s">
-        <v>301</v>
+      <c r="AD19" t="n">
+        <v>345881</v>
       </c>
       <c r="AE19" t="n">
         <v>115.25</v>
       </c>
-      <c r="AF19" t="s">
-        <v>302</v>
+      <c r="AF19" t="n">
+        <v>1468244</v>
       </c>
       <c r="AG19" t="n">
         <v>99.31</v>
@@ -3461,100 +2327,100 @@
     </row>
     <row r="20" spans="1:33">
       <c r="A20" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B20" t="s">
-        <v>304</v>
+        <v>50</v>
+      </c>
+      <c r="B20" t="n">
+        <v>460227</v>
       </c>
       <c r="C20" t="n">
         <v>100</v>
       </c>
-      <c r="D20" t="s">
-        <v>305</v>
+      <c r="D20" t="n">
+        <v>487650</v>
       </c>
       <c r="E20" t="n">
         <v>100</v>
       </c>
-      <c r="F20" t="s">
-        <v>306</v>
+      <c r="F20" t="n">
+        <v>500996</v>
       </c>
       <c r="G20" t="n">
         <v>100</v>
       </c>
-      <c r="H20" t="s">
-        <v>307</v>
+      <c r="H20" t="n">
+        <v>2024604</v>
       </c>
       <c r="I20" t="n">
         <v>100</v>
       </c>
-      <c r="J20" t="s">
-        <v>308</v>
+      <c r="J20" t="n">
+        <v>495721</v>
       </c>
       <c r="K20" t="n">
         <v>100</v>
       </c>
-      <c r="L20" t="s">
-        <v>309</v>
+      <c r="L20" t="n">
+        <v>508589</v>
       </c>
       <c r="M20" t="n">
         <v>100</v>
       </c>
-      <c r="N20" t="s">
-        <v>310</v>
+      <c r="N20" t="n">
+        <v>481447</v>
       </c>
       <c r="O20" t="n">
         <v>100</v>
       </c>
-      <c r="P20" t="s">
-        <v>311</v>
+      <c r="P20" t="n">
+        <v>2078224</v>
       </c>
       <c r="Q20" t="n">
         <v>100</v>
       </c>
-      <c r="R20" t="s">
-        <v>312</v>
+      <c r="R20" t="n">
+        <v>475433</v>
       </c>
       <c r="S20" t="n">
         <v>100</v>
       </c>
-      <c r="T20" t="s">
-        <v>313</v>
+      <c r="T20" t="n">
+        <v>483408</v>
       </c>
       <c r="U20" t="n">
         <v>100</v>
       </c>
-      <c r="V20" t="s">
-        <v>314</v>
+      <c r="V20" t="n">
+        <v>413010</v>
       </c>
       <c r="W20" t="n">
         <v>100</v>
       </c>
-      <c r="X20" t="s">
-        <v>315</v>
+      <c r="X20" t="n">
+        <v>1857289</v>
       </c>
       <c r="Y20" t="n">
         <v>100</v>
       </c>
-      <c r="Z20" t="s">
-        <v>316</v>
+      <c r="Z20" t="n">
+        <v>383670</v>
       </c>
       <c r="AA20" t="n">
         <v>100</v>
       </c>
-      <c r="AB20" t="s">
-        <v>317</v>
+      <c r="AB20" t="n">
+        <v>403918</v>
       </c>
       <c r="AC20" t="n">
         <v>100</v>
       </c>
-      <c r="AD20" t="s">
-        <v>318</v>
+      <c r="AD20" t="n">
+        <v>300124</v>
       </c>
       <c r="AE20" t="n">
         <v>100</v>
       </c>
-      <c r="AF20" t="s">
-        <v>319</v>
+      <c r="AF20" t="n">
+        <v>1478515</v>
       </c>
       <c r="AG20" t="n">
         <v>100</v>
@@ -3562,100 +2428,100 @@
     </row>
     <row r="21" spans="1:33">
       <c r="A21" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B21" t="s">
-        <v>321</v>
+        <v>51</v>
+      </c>
+      <c r="B21" t="n">
+        <v>66597</v>
       </c>
       <c r="C21" t="n">
         <v>14.47</v>
       </c>
-      <c r="D21" t="s">
-        <v>322</v>
+      <c r="D21" t="n">
+        <v>67673</v>
       </c>
       <c r="E21" t="n">
         <v>13.88</v>
       </c>
-      <c r="F21" t="s">
-        <v>323</v>
+      <c r="F21" t="n">
+        <v>64527</v>
       </c>
       <c r="G21" t="n">
         <v>12.88</v>
       </c>
-      <c r="H21" t="s">
-        <v>324</v>
+      <c r="H21" t="n">
+        <v>257671</v>
       </c>
       <c r="I21" t="n">
         <v>12.73</v>
       </c>
-      <c r="J21" t="s">
-        <v>325</v>
+      <c r="J21" t="n">
+        <v>72028</v>
       </c>
       <c r="K21" t="n">
         <v>14.53</v>
       </c>
-      <c r="L21" t="s">
-        <v>326</v>
+      <c r="L21" t="n">
+        <v>53706</v>
       </c>
       <c r="M21" t="n">
         <v>10.56</v>
       </c>
-      <c r="N21" t="s">
-        <v>327</v>
+      <c r="N21" t="n">
+        <v>28157</v>
       </c>
       <c r="O21" t="n">
         <v>5.85</v>
       </c>
-      <c r="P21" t="s">
-        <v>328</v>
+      <c r="P21" t="n">
+        <v>212334</v>
       </c>
       <c r="Q21" t="n">
         <v>10.22</v>
       </c>
-      <c r="R21" t="s">
-        <v>329</v>
+      <c r="R21" t="n">
+        <v>46764</v>
       </c>
       <c r="S21" t="n">
         <v>9.84</v>
       </c>
-      <c r="T21" t="s">
-        <v>330</v>
+      <c r="T21" t="n">
+        <v>38792</v>
       </c>
       <c r="U21" t="n">
         <v>8.02</v>
       </c>
-      <c r="V21" t="s">
-        <v>331</v>
+      <c r="V21" t="n">
+        <v>26960</v>
       </c>
       <c r="W21" t="n">
         <v>6.53</v>
       </c>
-      <c r="X21" t="s">
-        <v>332</v>
+      <c r="X21" t="n">
+        <v>139087</v>
       </c>
       <c r="Y21" t="n">
         <v>7.49</v>
       </c>
-      <c r="Z21" t="s">
-        <v>333</v>
+      <c r="Z21" t="n">
+        <v>36523</v>
       </c>
       <c r="AA21" t="n">
         <v>9.52</v>
       </c>
-      <c r="AB21" t="s">
-        <v>334</v>
+      <c r="AB21" t="n">
+        <v>19418</v>
       </c>
       <c r="AC21" t="n">
         <v>4.81</v>
       </c>
-      <c r="AD21" t="s">
-        <v>335</v>
+      <c r="AD21" t="n">
+        <v>-45757</v>
       </c>
       <c r="AE21" t="n">
         <v>-15.25</v>
       </c>
-      <c r="AF21" t="s">
-        <v>336</v>
+      <c r="AF21" t="n">
+        <v>10271</v>
       </c>
       <c r="AG21" t="n">
         <v>0.6899999999999999</v>
@@ -3663,100 +2529,100 @@
     </row>
     <row r="22" spans="1:33">
       <c r="A22" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B22" t="s">
-        <v>321</v>
+        <v>52</v>
+      </c>
+      <c r="B22" t="n">
+        <v>66597</v>
       </c>
       <c r="C22" t="n">
         <v>14.47</v>
       </c>
-      <c r="D22" t="s">
-        <v>322</v>
+      <c r="D22" t="n">
+        <v>67673</v>
       </c>
       <c r="E22" t="n">
         <v>13.88</v>
       </c>
-      <c r="F22" t="s">
-        <v>323</v>
+      <c r="F22" t="n">
+        <v>64527</v>
       </c>
       <c r="G22" t="n">
         <v>12.88</v>
       </c>
-      <c r="H22" t="s">
-        <v>324</v>
+      <c r="H22" t="n">
+        <v>257671</v>
       </c>
       <c r="I22" t="n">
         <v>12.73</v>
       </c>
-      <c r="J22" t="s">
-        <v>325</v>
+      <c r="J22" t="n">
+        <v>72028</v>
       </c>
       <c r="K22" t="n">
         <v>14.53</v>
       </c>
-      <c r="L22" t="s">
-        <v>326</v>
+      <c r="L22" t="n">
+        <v>53706</v>
       </c>
       <c r="M22" t="n">
         <v>10.56</v>
       </c>
-      <c r="N22" t="s">
-        <v>327</v>
+      <c r="N22" t="n">
+        <v>28157</v>
       </c>
       <c r="O22" t="n">
         <v>5.85</v>
       </c>
-      <c r="P22" t="s">
-        <v>328</v>
+      <c r="P22" t="n">
+        <v>212334</v>
       </c>
       <c r="Q22" t="n">
         <v>10.22</v>
       </c>
-      <c r="R22" t="s">
-        <v>329</v>
+      <c r="R22" t="n">
+        <v>46764</v>
       </c>
       <c r="S22" t="n">
         <v>9.84</v>
       </c>
-      <c r="T22" t="s">
-        <v>330</v>
+      <c r="T22" t="n">
+        <v>38792</v>
       </c>
       <c r="U22" t="n">
         <v>8.02</v>
       </c>
-      <c r="V22" t="s">
-        <v>331</v>
+      <c r="V22" t="n">
+        <v>26960</v>
       </c>
       <c r="W22" t="n">
         <v>6.53</v>
       </c>
-      <c r="X22" t="s">
-        <v>332</v>
+      <c r="X22" t="n">
+        <v>139087</v>
       </c>
       <c r="Y22" t="n">
         <v>7.49</v>
       </c>
-      <c r="Z22" t="s">
-        <v>333</v>
+      <c r="Z22" t="n">
+        <v>36523</v>
       </c>
       <c r="AA22" t="n">
         <v>9.52</v>
       </c>
-      <c r="AB22" t="s">
-        <v>334</v>
+      <c r="AB22" t="n">
+        <v>19418</v>
       </c>
       <c r="AC22" t="n">
         <v>4.81</v>
       </c>
-      <c r="AD22" t="s">
-        <v>335</v>
+      <c r="AD22" t="n">
+        <v>-45757</v>
       </c>
       <c r="AE22" t="n">
         <v>-15.25</v>
       </c>
-      <c r="AF22" t="s">
-        <v>336</v>
+      <c r="AF22" t="n">
+        <v>10271</v>
       </c>
       <c r="AG22" t="n">
         <v>0.6899999999999999</v>
@@ -3764,100 +2630,100 @@
     </row>
     <row r="23" spans="1:33">
       <c r="A23" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B23" t="s">
-        <v>339</v>
+        <v>53</v>
+      </c>
+      <c r="B23" t="n">
+        <v>14802</v>
       </c>
       <c r="C23" t="n">
         <v>3.22</v>
       </c>
-      <c r="D23" t="s">
-        <v>340</v>
+      <c r="D23" t="n">
+        <v>13191</v>
       </c>
       <c r="E23" t="n">
         <v>2.71</v>
       </c>
-      <c r="F23" t="s">
-        <v>341</v>
+      <c r="F23" t="n">
+        <v>13701</v>
       </c>
       <c r="G23" t="n">
         <v>2.73</v>
       </c>
-      <c r="H23" t="s">
-        <v>342</v>
+      <c r="H23" t="n">
+        <v>63241</v>
       </c>
       <c r="I23" t="n">
         <v>3.12</v>
       </c>
-      <c r="J23" t="s">
-        <v>343</v>
+      <c r="J23" t="n">
+        <v>17106</v>
       </c>
       <c r="K23" t="n">
         <v>3.45</v>
       </c>
-      <c r="L23" t="s">
-        <v>344</v>
+      <c r="L23" t="n">
+        <v>15124</v>
       </c>
       <c r="M23" t="n">
         <v>2.97</v>
       </c>
-      <c r="N23" t="s">
-        <v>345</v>
+      <c r="N23" t="n">
+        <v>26286</v>
       </c>
       <c r="O23" t="n">
         <v>5.46</v>
       </c>
-      <c r="P23" t="s">
-        <v>346</v>
+      <c r="P23" t="n">
+        <v>80394</v>
       </c>
       <c r="Q23" t="n">
         <v>3.87</v>
       </c>
-      <c r="R23" t="s">
-        <v>347</v>
+      <c r="R23" t="n">
+        <v>14024</v>
       </c>
       <c r="S23" t="n">
         <v>2.95</v>
       </c>
-      <c r="T23" t="s">
-        <v>348</v>
+      <c r="T23" t="n">
+        <v>14623</v>
       </c>
       <c r="U23" t="n">
         <v>3.02</v>
       </c>
-      <c r="V23" t="s">
-        <v>349</v>
+      <c r="V23" t="n">
+        <v>14734</v>
       </c>
       <c r="W23" t="n">
         <v>3.57</v>
       </c>
-      <c r="X23" t="s">
-        <v>350</v>
+      <c r="X23" t="n">
+        <v>67805</v>
       </c>
       <c r="Y23" t="n">
         <v>3.65</v>
       </c>
-      <c r="Z23" t="s">
-        <v>351</v>
+      <c r="Z23" t="n">
+        <v>20739</v>
       </c>
       <c r="AA23" t="n">
         <v>5.41</v>
       </c>
-      <c r="AB23" t="s">
-        <v>352</v>
+      <c r="AB23" t="n">
+        <v>14709</v>
       </c>
       <c r="AC23" t="n">
         <v>3.64</v>
       </c>
-      <c r="AD23" t="s">
-        <v>353</v>
+      <c r="AD23" t="n">
+        <v>19332</v>
       </c>
       <c r="AE23" t="n">
         <v>6.44</v>
       </c>
-      <c r="AF23" t="s">
-        <v>354</v>
+      <c r="AF23" t="n">
+        <v>85574</v>
       </c>
       <c r="AG23" t="n">
         <v>5.79</v>
@@ -3865,100 +2731,100 @@
     </row>
     <row r="24" spans="1:33">
       <c r="A24" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B24" t="s">
-        <v>356</v>
+        <v>54</v>
+      </c>
+      <c r="B24" t="n">
+        <v>59501</v>
       </c>
       <c r="C24" t="n">
         <v>12.93</v>
       </c>
-      <c r="D24" t="s">
-        <v>357</v>
+      <c r="D24" t="n">
+        <v>6970</v>
       </c>
       <c r="E24" t="n">
         <v>1.43</v>
       </c>
-      <c r="F24" t="s">
-        <v>358</v>
+      <c r="F24" t="n">
+        <v>105312</v>
       </c>
       <c r="G24" t="n">
         <v>21.02</v>
       </c>
-      <c r="H24" t="s">
-        <v>359</v>
+      <c r="H24" t="n">
+        <v>111930</v>
       </c>
       <c r="I24" t="n">
         <v>5.53</v>
       </c>
-      <c r="J24" t="s">
-        <v>360</v>
+      <c r="J24" t="n">
+        <v>61690</v>
       </c>
       <c r="K24" t="n">
         <v>12.44</v>
       </c>
-      <c r="L24" t="s">
-        <v>361</v>
+      <c r="L24" t="n">
+        <v>42414</v>
       </c>
       <c r="M24" t="n">
         <v>8.34</v>
       </c>
-      <c r="N24" t="s">
-        <v>362</v>
+      <c r="N24" t="n">
+        <v>65586</v>
       </c>
       <c r="O24" t="n">
         <v>13.62</v>
       </c>
-      <c r="P24" t="s">
-        <v>363</v>
+      <c r="P24" t="n">
+        <v>130905</v>
       </c>
       <c r="Q24" t="n">
         <v>6.3</v>
       </c>
-      <c r="R24" t="s">
-        <v>364</v>
+      <c r="R24" t="n">
+        <v>31441</v>
       </c>
       <c r="S24" t="n">
         <v>6.61</v>
       </c>
-      <c r="T24" t="s">
-        <v>365</v>
+      <c r="T24" t="n">
+        <v>26476</v>
       </c>
       <c r="U24" t="n">
         <v>5.48</v>
       </c>
-      <c r="V24" t="s">
-        <v>366</v>
+      <c r="V24" t="n">
+        <v>64495</v>
       </c>
       <c r="W24" t="n">
         <v>15.62</v>
       </c>
-      <c r="X24" t="s">
-        <v>367</v>
+      <c r="X24" t="n">
+        <v>143959</v>
       </c>
       <c r="Y24" t="n">
         <v>7.75</v>
       </c>
-      <c r="Z24" t="s">
-        <v>368</v>
+      <c r="Z24" t="n">
+        <v>197272</v>
       </c>
       <c r="AA24" t="n">
         <v>51.42</v>
       </c>
-      <c r="AB24" t="s">
-        <v>369</v>
+      <c r="AB24" t="n">
+        <v>19404</v>
       </c>
       <c r="AC24" t="n">
         <v>4.8</v>
       </c>
-      <c r="AD24" t="s">
-        <v>370</v>
+      <c r="AD24" t="n">
+        <v>-9507</v>
       </c>
       <c r="AE24" t="n">
         <v>-3.17</v>
       </c>
-      <c r="AF24" t="s">
-        <v>371</v>
+      <c r="AF24" t="n">
+        <v>217336</v>
       </c>
       <c r="AG24" t="n">
         <v>14.7</v>
@@ -3966,100 +2832,100 @@
     </row>
     <row r="25" spans="1:33">
       <c r="A25" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B25" t="s">
-        <v>373</v>
+        <v>55</v>
+      </c>
+      <c r="B25" t="n">
+        <v>12301</v>
       </c>
       <c r="C25" t="n">
         <v>2.67</v>
       </c>
-      <c r="D25" t="s">
-        <v>374</v>
+      <c r="D25" t="n">
+        <v>10825</v>
       </c>
       <c r="E25" t="n">
         <v>2.22</v>
       </c>
-      <c r="F25" t="s">
-        <v>375</v>
+      <c r="F25" t="n">
+        <v>12096</v>
       </c>
       <c r="G25" t="n">
         <v>2.41</v>
       </c>
-      <c r="H25" t="s">
-        <v>376</v>
+      <c r="H25" t="n">
+        <v>54604</v>
       </c>
       <c r="I25" t="n">
         <v>2.7</v>
       </c>
-      <c r="J25" t="s">
-        <v>377</v>
+      <c r="J25" t="n">
+        <v>14846</v>
       </c>
       <c r="K25" t="n">
         <v>2.99</v>
       </c>
-      <c r="L25" t="s">
-        <v>378</v>
+      <c r="L25" t="n">
+        <v>13865</v>
       </c>
       <c r="M25" t="n">
         <v>2.73</v>
       </c>
-      <c r="N25" t="s">
-        <v>379</v>
+      <c r="N25" t="n">
+        <v>24935</v>
       </c>
       <c r="O25" t="n">
         <v>5.18</v>
       </c>
-      <c r="P25" t="s">
-        <v>380</v>
+      <c r="P25" t="n">
+        <v>73732</v>
       </c>
       <c r="Q25" t="n">
         <v>3.55</v>
       </c>
-      <c r="R25" t="s">
-        <v>381</v>
+      <c r="R25" t="n">
+        <v>11690</v>
       </c>
       <c r="S25" t="n">
         <v>2.46</v>
       </c>
-      <c r="T25" t="s">
-        <v>382</v>
+      <c r="T25" t="n">
+        <v>13365</v>
       </c>
       <c r="U25" t="n">
         <v>2.76</v>
       </c>
-      <c r="V25" t="s">
-        <v>383</v>
+      <c r="V25" t="n">
+        <v>13427</v>
       </c>
       <c r="W25" t="n">
         <v>3.25</v>
       </c>
-      <c r="X25" t="s">
-        <v>384</v>
+      <c r="X25" t="n">
+        <v>60494</v>
       </c>
       <c r="Y25" t="n">
         <v>3.26</v>
       </c>
-      <c r="Z25" t="s">
-        <v>385</v>
+      <c r="Z25" t="n">
+        <v>17332</v>
       </c>
       <c r="AA25" t="n">
         <v>4.52</v>
       </c>
-      <c r="AB25" t="s">
-        <v>386</v>
+      <c r="AB25" t="n">
+        <v>12362</v>
       </c>
       <c r="AC25" t="n">
         <v>3.06</v>
       </c>
-      <c r="AD25" t="s">
-        <v>387</v>
+      <c r="AD25" t="n">
+        <v>16724</v>
       </c>
       <c r="AE25" t="n">
         <v>5.57</v>
       </c>
-      <c r="AF25" t="s">
-        <v>388</v>
+      <c r="AF25" t="n">
+        <v>73996</v>
       </c>
       <c r="AG25" t="n">
         <v>5</v>
@@ -4067,100 +2933,100 @@
     </row>
     <row r="26" spans="1:33">
       <c r="A26" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="B26" t="s">
-        <v>185</v>
+        <v>56</v>
+      </c>
+      <c r="B26" t="n">
+        <v>61097</v>
       </c>
       <c r="C26" t="n">
         <v>13.28</v>
       </c>
-      <c r="D26" t="s">
-        <v>186</v>
+      <c r="D26" t="n">
+        <v>17151</v>
       </c>
       <c r="E26" t="n">
         <v>3.52</v>
       </c>
-      <c r="F26" t="s">
-        <v>187</v>
+      <c r="F26" t="n">
+        <v>109032</v>
       </c>
       <c r="G26" t="n">
         <v>21.76</v>
       </c>
-      <c r="H26" t="s">
-        <v>188</v>
+      <c r="H26" t="n">
+        <v>146860</v>
       </c>
       <c r="I26" t="n">
         <v>7.25</v>
       </c>
-      <c r="J26" t="s">
-        <v>189</v>
+      <c r="J26" t="n">
+        <v>68173</v>
       </c>
       <c r="K26" t="n">
         <v>13.75</v>
       </c>
-      <c r="L26" t="s">
-        <v>190</v>
+      <c r="L26" t="n">
+        <v>36589</v>
       </c>
       <c r="M26" t="n">
         <v>7.19</v>
       </c>
-      <c r="N26" t="s">
-        <v>191</v>
+      <c r="N26" t="n">
+        <v>63447</v>
       </c>
       <c r="O26" t="n">
         <v>13.18</v>
       </c>
-      <c r="P26" t="s">
-        <v>192</v>
+      <c r="P26" t="n">
+        <v>142301</v>
       </c>
       <c r="Q26" t="n">
         <v>6.85</v>
       </c>
-      <c r="R26" t="s">
-        <v>193</v>
+      <c r="R26" t="n">
+        <v>35987</v>
       </c>
       <c r="S26" t="n">
         <v>7.57</v>
       </c>
-      <c r="T26" t="s">
-        <v>194</v>
+      <c r="T26" t="n">
+        <v>24910</v>
       </c>
       <c r="U26" t="n">
         <v>5.15</v>
       </c>
-      <c r="V26" t="s">
-        <v>195</v>
+      <c r="V26" t="n">
+        <v>61391</v>
       </c>
       <c r="W26" t="n">
         <v>14.86</v>
       </c>
-      <c r="X26" t="s">
-        <v>196</v>
+      <c r="X26" t="n">
+        <v>144466</v>
       </c>
       <c r="Y26" t="n">
         <v>7.78</v>
       </c>
-      <c r="Z26" t="s">
-        <v>197</v>
+      <c r="Z26" t="n">
+        <v>216613</v>
       </c>
       <c r="AA26" t="n">
         <v>56.46</v>
       </c>
-      <c r="AB26" t="s">
-        <v>198</v>
+      <c r="AB26" t="n">
+        <v>18707</v>
       </c>
       <c r="AC26" t="n">
         <v>4.63</v>
       </c>
-      <c r="AD26" t="s">
-        <v>199</v>
+      <c r="AD26" t="n">
+        <v>-8727</v>
       </c>
       <c r="AE26" t="n">
         <v>-2.91</v>
       </c>
-      <c r="AF26" t="s">
-        <v>200</v>
+      <c r="AF26" t="n">
+        <v>207603</v>
       </c>
       <c r="AG26" t="n">
         <v>14.04</v>
@@ -4168,40 +3034,40 @@
     </row>
     <row r="27" spans="1:33">
       <c r="A27" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="B27" t="s">
-        <v>33</v>
+        <v>57</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
-      <c r="D27" t="s">
-        <v>33</v>
+      <c r="D27" t="n">
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="s"/>
       <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>391</v>
+      <c r="H27" t="n">
+        <v>35</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="s"/>
       <c r="K27" t="s"/>
-      <c r="L27" t="s">
-        <v>33</v>
+      <c r="L27" t="n">
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="s"/>
       <c r="O27" t="s"/>
-      <c r="P27" t="s">
-        <v>33</v>
+      <c r="P27" t="n">
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -4225,100 +3091,100 @@
     </row>
     <row r="28" spans="1:33">
       <c r="A28" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B28" t="s">
-        <v>393</v>
+        <v>58</v>
+      </c>
+      <c r="B28" t="n">
+        <v>523</v>
       </c>
       <c r="C28" t="n">
         <v>0.11</v>
       </c>
-      <c r="D28" t="s">
-        <v>394</v>
+      <c r="D28" t="n">
+        <v>400</v>
       </c>
       <c r="E28" t="n">
         <v>0.08</v>
       </c>
-      <c r="F28" t="s">
-        <v>395</v>
+      <c r="F28" t="n">
+        <v>389</v>
       </c>
       <c r="G28" t="n">
         <v>0.08</v>
       </c>
-      <c r="H28" t="s">
-        <v>396</v>
+      <c r="H28" t="n">
+        <v>1700</v>
       </c>
       <c r="I28" t="n">
         <v>0.08</v>
       </c>
-      <c r="J28" t="s">
-        <v>397</v>
+      <c r="J28" t="n">
+        <v>391</v>
       </c>
       <c r="K28" t="n">
         <v>0.08</v>
       </c>
-      <c r="L28" t="s">
-        <v>398</v>
+      <c r="L28" t="n">
+        <v>472</v>
       </c>
       <c r="M28" t="n">
         <v>0.09</v>
       </c>
-      <c r="N28" t="s">
-        <v>399</v>
+      <c r="N28" t="n">
+        <v>412</v>
       </c>
       <c r="O28" t="n">
         <v>0.09</v>
       </c>
-      <c r="P28" t="s">
-        <v>400</v>
+      <c r="P28" t="n">
+        <v>1668</v>
       </c>
       <c r="Q28" t="n">
         <v>0.08</v>
       </c>
-      <c r="R28" t="s">
-        <v>401</v>
+      <c r="R28" t="n">
+        <v>388</v>
       </c>
       <c r="S28" t="n">
         <v>0.08</v>
       </c>
-      <c r="T28" t="s">
-        <v>402</v>
+      <c r="T28" t="n">
+        <v>43</v>
       </c>
       <c r="U28" t="n">
         <v>0.01</v>
       </c>
-      <c r="V28" t="s">
-        <v>403</v>
+      <c r="V28" t="n">
+        <v>49</v>
       </c>
       <c r="W28" t="n">
         <v>0.01</v>
       </c>
-      <c r="X28" t="s">
-        <v>404</v>
+      <c r="X28" t="n">
+        <v>538</v>
       </c>
       <c r="Y28" t="n">
         <v>0.03</v>
       </c>
-      <c r="Z28" t="s">
-        <v>405</v>
+      <c r="Z28" t="n">
+        <v>53</v>
       </c>
       <c r="AA28" t="n">
         <v>0.01</v>
       </c>
-      <c r="AB28" t="s">
-        <v>406</v>
+      <c r="AB28" t="n">
+        <v>136</v>
       </c>
       <c r="AC28" t="n">
         <v>0.03</v>
       </c>
-      <c r="AD28" t="s">
-        <v>407</v>
+      <c r="AD28" t="n">
+        <v>20</v>
       </c>
       <c r="AE28" t="n">
         <v>0.01</v>
       </c>
-      <c r="AF28" t="s">
-        <v>408</v>
+      <c r="AF28" t="n">
+        <v>268</v>
       </c>
       <c r="AG28" t="n">
         <v>0.02</v>
@@ -4326,100 +3192,100 @@
     </row>
     <row r="29" spans="1:33">
       <c r="A29" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B29" t="s">
-        <v>410</v>
+        <v>59</v>
+      </c>
+      <c r="B29" t="n">
+        <v>296</v>
       </c>
       <c r="C29" t="n">
         <v>0.06</v>
       </c>
-      <c r="D29" t="s">
-        <v>411</v>
+      <c r="D29" t="n">
+        <v>161</v>
       </c>
       <c r="E29" t="n">
         <v>0.03</v>
       </c>
-      <c r="F29" t="s">
-        <v>412</v>
+      <c r="F29" t="n">
+        <v>217</v>
       </c>
       <c r="G29" t="n">
         <v>0.04</v>
       </c>
-      <c r="H29" t="s">
-        <v>413</v>
+      <c r="H29" t="n">
+        <v>827</v>
       </c>
       <c r="I29" t="n">
         <v>0.04</v>
       </c>
-      <c r="J29" t="s">
-        <v>414</v>
+      <c r="J29" t="n">
+        <v>206</v>
       </c>
       <c r="K29" t="n">
         <v>0.04</v>
       </c>
-      <c r="L29" t="s">
-        <v>415</v>
+      <c r="L29" t="n">
+        <v>80</v>
       </c>
       <c r="M29" t="n">
         <v>0.02</v>
       </c>
-      <c r="N29" t="s">
-        <v>416</v>
+      <c r="N29" t="n">
+        <v>197</v>
       </c>
       <c r="O29" t="n">
         <v>0.04</v>
       </c>
-      <c r="P29" t="s">
-        <v>417</v>
+      <c r="P29" t="n">
+        <v>536</v>
       </c>
       <c r="Q29" t="n">
         <v>0.03</v>
       </c>
-      <c r="R29" t="s">
-        <v>418</v>
+      <c r="R29" t="n">
+        <v>154</v>
       </c>
       <c r="S29" t="n">
         <v>0.03</v>
       </c>
-      <c r="T29" t="s">
-        <v>419</v>
+      <c r="T29" t="n">
+        <v>114</v>
       </c>
       <c r="U29" t="n">
         <v>0.02</v>
       </c>
-      <c r="V29" t="s">
-        <v>420</v>
+      <c r="V29" t="n">
+        <v>122</v>
       </c>
       <c r="W29" t="n">
         <v>0.03</v>
       </c>
-      <c r="X29" t="s">
-        <v>421</v>
+      <c r="X29" t="n">
+        <v>471</v>
       </c>
       <c r="Y29" t="n">
         <v>0.03</v>
       </c>
-      <c r="Z29" t="s">
-        <v>422</v>
+      <c r="Z29" t="n">
+        <v>99150</v>
       </c>
       <c r="AA29" t="n">
         <v>25.84</v>
       </c>
-      <c r="AB29" t="s">
-        <v>423</v>
+      <c r="AB29" t="n">
+        <v>499</v>
       </c>
       <c r="AC29" t="n">
         <v>0.12</v>
       </c>
-      <c r="AD29" t="s">
-        <v>424</v>
+      <c r="AD29" t="n">
+        <v>253</v>
       </c>
       <c r="AE29" t="n">
         <v>0.08</v>
       </c>
-      <c r="AF29" t="s">
-        <v>425</v>
+      <c r="AF29" t="n">
+        <v>99185</v>
       </c>
       <c r="AG29" t="n">
         <v>6.71</v>
@@ -4427,100 +3293,100 @@
     </row>
     <row r="30" spans="1:33">
       <c r="A30" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="B30" t="s">
-        <v>427</v>
+        <v>60</v>
+      </c>
+      <c r="B30" t="n">
+        <v>295</v>
       </c>
       <c r="C30" t="n">
         <v>0.06</v>
       </c>
-      <c r="D30" t="s">
-        <v>428</v>
+      <c r="D30" t="n">
+        <v>164</v>
       </c>
       <c r="E30" t="n">
         <v>0.03</v>
       </c>
-      <c r="F30" t="s">
-        <v>429</v>
+      <c r="F30" t="n">
+        <v>218</v>
       </c>
       <c r="G30" t="n">
         <v>0.04</v>
       </c>
-      <c r="H30" t="s">
-        <v>430</v>
+      <c r="H30" t="n">
+        <v>834</v>
       </c>
       <c r="I30" t="n">
         <v>0.04</v>
       </c>
-      <c r="J30" t="s">
-        <v>431</v>
+      <c r="J30" t="n">
+        <v>205</v>
       </c>
       <c r="K30" t="n">
         <v>0.04</v>
       </c>
-      <c r="L30" t="s">
-        <v>432</v>
+      <c r="L30" t="n">
+        <v>79</v>
       </c>
       <c r="M30" t="n">
         <v>0.02</v>
       </c>
-      <c r="N30" t="s">
-        <v>433</v>
+      <c r="N30" t="n">
+        <v>199</v>
       </c>
       <c r="O30" t="n">
         <v>0.04</v>
       </c>
-      <c r="P30" t="s">
-        <v>417</v>
+      <c r="P30" t="n">
+        <v>536</v>
       </c>
       <c r="Q30" t="n">
         <v>0.03</v>
       </c>
-      <c r="R30" t="s">
-        <v>434</v>
+      <c r="R30" t="n">
+        <v>153</v>
       </c>
       <c r="S30" t="n">
         <v>0.03</v>
       </c>
-      <c r="T30" t="s">
-        <v>435</v>
+      <c r="T30" t="n">
+        <v>111</v>
       </c>
       <c r="U30" t="n">
         <v>0.02</v>
       </c>
-      <c r="V30" t="s">
-        <v>420</v>
+      <c r="V30" t="n">
+        <v>122</v>
       </c>
       <c r="W30" t="n">
         <v>0.03</v>
       </c>
-      <c r="X30" t="s">
-        <v>436</v>
+      <c r="X30" t="n">
+        <v>467</v>
       </c>
       <c r="Y30" t="n">
         <v>0.03</v>
       </c>
-      <c r="Z30" t="s">
-        <v>437</v>
+      <c r="Z30" t="n">
+        <v>99149</v>
       </c>
       <c r="AA30" t="n">
         <v>25.84</v>
       </c>
-      <c r="AB30" t="s">
-        <v>423</v>
+      <c r="AB30" t="n">
+        <v>499</v>
       </c>
       <c r="AC30" t="n">
         <v>0.12</v>
       </c>
-      <c r="AD30" t="s">
-        <v>424</v>
+      <c r="AD30" t="n">
+        <v>253</v>
       </c>
       <c r="AE30" t="n">
         <v>0.08</v>
       </c>
-      <c r="AF30" t="s">
-        <v>438</v>
+      <c r="AF30" t="n">
+        <v>99186</v>
       </c>
       <c r="AG30" t="n">
         <v>6.71</v>
